--- a/JupyterNotebooks/AvgHW/ShearF-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,18 +82,21 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
@@ -89,9 +104,6 @@
   </si>
   <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9991364103915978</v>
+        <v>0.9869327978028275</v>
       </c>
       <c r="D3">
         <v>1.038089840198896</v>
       </c>
       <c r="E3">
-        <v>0.9869327978028275</v>
+        <v>0.9991364103915978</v>
       </c>
       <c r="F3">
+        <v>1.038089840198896</v>
+      </c>
+      <c r="G3">
         <v>0.9991364103915978</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.9718900980355997</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.019559892995334</v>
       </c>
-      <c r="I3">
-        <v>0.990476881695434</v>
-      </c>
       <c r="J3">
-        <v>1.038089840198896</v>
+        <v>0.9904768816954347</v>
       </c>
       <c r="K3">
         <v>0.9991364103915978</v>
@@ -728,7 +680,7 @@
         <v>1.001014320186615</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9979270591049408</v>
+        <v>0.9750761903524402</v>
       </c>
       <c r="D4">
         <v>1.072908334261707</v>
       </c>
       <c r="E4">
-        <v>0.9750761903524402</v>
+        <v>0.9979270591049408</v>
       </c>
       <c r="F4">
+        <v>1.072908334261707</v>
+      </c>
+      <c r="G4">
         <v>0.9979270591049408</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.9455176546297438</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1.037798343618565</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.9817120679331135</v>
-      </c>
-      <c r="J4">
-        <v>1.072908334261707</v>
       </c>
       <c r="K4">
         <v>0.9979270591049408</v>
@@ -790,7 +742,7 @@
         <v>1.001823274983418</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9957633754460354</v>
+        <v>0.9520693070018922</v>
       </c>
       <c r="D5">
         <v>1.14142267861406</v>
       </c>
       <c r="E5">
-        <v>0.9520693070018922</v>
+        <v>0.9957633754460354</v>
       </c>
       <c r="F5">
+        <v>1.14142267861406</v>
+      </c>
+      <c r="G5">
         <v>0.9957633754460354</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.8969245182126855</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.072364737022095</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.9647536229254553</v>
-      </c>
-      <c r="J5">
-        <v>1.14142267861406</v>
       </c>
       <c r="K5">
         <v>0.9957633754460354</v>
@@ -852,7 +804,7 @@
         <v>1.003883039870371</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,31 +812,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9934754554787394</v>
+        <v>0.9294331644839061</v>
       </c>
       <c r="D6">
         <v>1.208168654849316</v>
       </c>
       <c r="E6">
-        <v>0.9294331644839061</v>
+        <v>0.9934754554787393</v>
       </c>
       <c r="F6">
-        <v>0.9934754554787394</v>
+        <v>1.208168654849316</v>
       </c>
       <c r="G6">
+        <v>0.9934754554787393</v>
+      </c>
+      <c r="H6">
         <v>0.8503054743345732</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1.106363561317414</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.9479821603137548</v>
       </c>
-      <c r="J6">
-        <v>1.208168654849316</v>
-      </c>
       <c r="K6">
-        <v>0.9934754554787394</v>
+        <v>0.9934754554787393</v>
       </c>
       <c r="L6">
         <v>0.9294331644839061</v>
@@ -902,7 +854,7 @@
         <v>1.043692424937321</v>
       </c>
       <c r="Q6">
-        <v>1.043692424937321</v>
+        <v>1.04369242493732</v>
       </c>
       <c r="R6">
         <v>1.031138182572675</v>
@@ -914,7 +866,7 @@
         <v>1.005954745129617</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,34 +874,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.999289029576292</v>
+        <v>0.9993716029204581</v>
       </c>
       <c r="D7">
         <v>1.003058643856976</v>
       </c>
       <c r="E7">
-        <v>0.9993716029204582</v>
+        <v>0.9992890295762914</v>
       </c>
       <c r="F7">
-        <v>0.999289029576292</v>
+        <v>1.003058643856976</v>
       </c>
       <c r="G7">
-        <v>0.9988733914290447</v>
+        <v>0.9992890295762914</v>
       </c>
       <c r="H7">
+        <v>0.9988733914290444</v>
+      </c>
+      <c r="I7">
         <v>1.001262800696823</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.9993455179504575</v>
       </c>
-      <c r="J7">
-        <v>1.003058643856976</v>
-      </c>
       <c r="K7">
-        <v>0.999289029576292</v>
+        <v>0.9992890295762914</v>
       </c>
       <c r="L7">
-        <v>0.9993716029204582</v>
+        <v>0.9993716029204581</v>
       </c>
       <c r="M7">
         <v>1.001215123388717</v>
@@ -976,7 +928,7 @@
         <v>1.000200164405008</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,49 +936,49 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9985599813978132</v>
+        <v>0.9984364582986048</v>
       </c>
       <c r="D8">
-        <v>1.007123634732988</v>
+        <v>1.007123634732989</v>
       </c>
       <c r="E8">
-        <v>0.9984364582986049</v>
+        <v>0.9985599813978137</v>
       </c>
       <c r="F8">
-        <v>0.9985599813978132</v>
+        <v>1.007123634732989</v>
       </c>
       <c r="G8">
-        <v>0.9972597759496105</v>
+        <v>0.9985599813978137</v>
       </c>
       <c r="H8">
-        <v>1.002932359288542</v>
+        <v>0.9972597759496106</v>
       </c>
       <c r="I8">
-        <v>0.9984672414543903</v>
+        <v>1.002932359288543</v>
       </c>
       <c r="J8">
-        <v>1.007123634732988</v>
+        <v>0.9984672414543905</v>
       </c>
       <c r="K8">
-        <v>0.9985599813978132</v>
+        <v>0.9985599813978137</v>
       </c>
       <c r="L8">
-        <v>0.9984364582986049</v>
+        <v>0.9984364582986048</v>
       </c>
       <c r="M8">
-        <v>1.002780046515796</v>
+        <v>1.002780046515797</v>
       </c>
       <c r="N8">
-        <v>1.002780046515796</v>
+        <v>1.002780046515797</v>
       </c>
       <c r="O8">
-        <v>1.002830817440045</v>
+        <v>1.002830817440046</v>
       </c>
       <c r="P8">
-        <v>1.001373358143135</v>
+        <v>1.001373358143136</v>
       </c>
       <c r="Q8">
-        <v>1.001373358143135</v>
+        <v>1.001373358143136</v>
       </c>
       <c r="R8">
         <v>1.000670013956805</v>
@@ -1035,10 +987,10 @@
         <v>1.000670013956805</v>
       </c>
       <c r="T8">
-        <v>1.000463241853658</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.000463241853659</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9984931627890197</v>
+        <v>0.9978243796067214</v>
       </c>
       <c r="D9">
         <v>1.009096757409688</v>
       </c>
       <c r="E9">
-        <v>0.9978243796067214</v>
+        <v>0.9984931627890197</v>
       </c>
       <c r="F9">
+        <v>1.009096757409688</v>
+      </c>
+      <c r="G9">
         <v>0.9984931627890197</v>
       </c>
-      <c r="G9">
-        <v>0.995785973072802</v>
-      </c>
       <c r="H9">
+        <v>0.9957859730728019</v>
+      </c>
+      <c r="I9">
         <v>1.00388964321216</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.9980091223870803</v>
-      </c>
-      <c r="J9">
-        <v>1.009096757409688</v>
       </c>
       <c r="K9">
         <v>0.9984931627890197</v>
@@ -1100,7 +1052,7 @@
         <v>1.000516506412912</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9960975976587585</v>
+        <v>0.9953755878316889</v>
       </c>
       <c r="D10">
         <v>1.020587464322107</v>
       </c>
       <c r="E10">
-        <v>0.9953755878316889</v>
+        <v>0.9960975976587585</v>
       </c>
       <c r="F10">
+        <v>1.020587464322107</v>
+      </c>
+      <c r="G10">
         <v>0.9960975976587585</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.9913892885686411</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1.00857968090095</v>
       </c>
-      <c r="I10">
-        <v>0.9955653405108831</v>
-      </c>
       <c r="J10">
-        <v>1.020587464322107</v>
+        <v>0.995565340510883</v>
       </c>
       <c r="K10">
         <v>0.9960975976587585</v>
@@ -1162,7 +1114,7 @@
         <v>1.001265826632171</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,31 +1122,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9953408375611015</v>
+        <v>0.9920233156664652</v>
       </c>
       <c r="D11">
         <v>1.031994023397914</v>
       </c>
       <c r="E11">
-        <v>0.9920233156664652</v>
+        <v>0.9953408375611013</v>
       </c>
       <c r="F11">
-        <v>0.9953408375611015</v>
+        <v>1.031994023397914</v>
       </c>
       <c r="G11">
-        <v>0.9849601346802441</v>
+        <v>0.9953408375611013</v>
       </c>
       <c r="H11">
+        <v>0.9849601346802443</v>
+      </c>
+      <c r="I11">
         <v>1.013662235334028</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.9929508906447841</v>
       </c>
-      <c r="J11">
-        <v>1.031994023397914</v>
-      </c>
       <c r="K11">
-        <v>0.9953408375611015</v>
+        <v>0.9953408375611013</v>
       </c>
       <c r="L11">
         <v>0.9920233156664652</v>
@@ -1221,10 +1173,10 @@
         <v>1.003674753546645</v>
       </c>
       <c r="T11">
-        <v>1.001821906214089</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>1.00182190621409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.9294315679662116</v>
+      </c>
+      <c r="D12">
+        <v>0.6474123980439751</v>
+      </c>
+      <c r="E12">
         <v>1.383247727733637</v>
       </c>
-      <c r="D12">
-        <v>0.6474123980439753</v>
-      </c>
-      <c r="E12">
-        <v>0.9294315679662116</v>
-      </c>
       <c r="F12">
+        <v>0.6474123980439751</v>
+      </c>
+      <c r="G12">
         <v>1.383247727733637</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.7695134981280535</v>
       </c>
-      <c r="H12">
-        <v>0.8916722145036234</v>
-      </c>
       <c r="I12">
+        <v>0.8916722145036236</v>
+      </c>
+      <c r="J12">
         <v>1.062021937385172</v>
-      </c>
-      <c r="J12">
-        <v>0.6474123980439753</v>
       </c>
       <c r="K12">
         <v>1.383247727733637</v>
@@ -1262,16 +1214,16 @@
         <v>0.9294315679662116</v>
       </c>
       <c r="M12">
-        <v>0.7884219830050935</v>
+        <v>0.7884219830050934</v>
       </c>
       <c r="N12">
-        <v>0.7884219830050935</v>
+        <v>0.7884219830050934</v>
       </c>
       <c r="O12">
         <v>0.8228387268379368</v>
       </c>
       <c r="P12">
-        <v>0.9866972312479415</v>
+        <v>0.9866972312479413</v>
       </c>
       <c r="Q12">
         <v>0.9866972312479413</v>
@@ -1283,10 +1235,10 @@
         <v>1.085834855369365</v>
       </c>
       <c r="T12">
-        <v>0.9472165572934457</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9472165572934456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,28 +1246,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8574694106388464</v>
+        <v>1.069688241736297</v>
       </c>
       <c r="D13">
         <v>1.013927747195857</v>
       </c>
       <c r="E13">
-        <v>1.069688241736297</v>
+        <v>0.8574694106388464</v>
       </c>
       <c r="F13">
+        <v>1.013927747195857</v>
+      </c>
+      <c r="G13">
         <v>0.8574694106388464</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1.165039530280905</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.9798262988859499</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1.007695936101689</v>
-      </c>
-      <c r="J13">
-        <v>1.013927747195857</v>
       </c>
       <c r="K13">
         <v>0.8574694106388464</v>
@@ -1330,10 +1282,10 @@
         <v>1.041807994466077</v>
       </c>
       <c r="O13">
-        <v>1.021147429272702</v>
+        <v>1.021147429272701</v>
       </c>
       <c r="P13">
-        <v>0.9803617998570004</v>
+        <v>0.9803617998570003</v>
       </c>
       <c r="Q13">
         <v>0.9803617998570003</v>
@@ -1348,7 +1300,7 @@
         <v>1.015607860806591</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,28 +1308,28 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>1.165048391102379</v>
+      </c>
+      <c r="D14">
+        <v>0.6132311431620125</v>
+      </c>
+      <c r="E14">
         <v>0.9489468280812742</v>
       </c>
-      <c r="D14">
-        <v>0.6132311431620127</v>
-      </c>
-      <c r="E14">
-        <v>1.165048391102379</v>
-      </c>
       <c r="F14">
+        <v>0.6132311431620125</v>
+      </c>
+      <c r="G14">
         <v>0.9489468280812742</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1.391676314260136</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.7808622755914665</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1.102329925782838</v>
-      </c>
-      <c r="J14">
-        <v>0.6132311431620127</v>
       </c>
       <c r="K14">
         <v>0.9489468280812742</v>
@@ -1386,13 +1338,13 @@
         <v>1.165048391102379</v>
       </c>
       <c r="M14">
-        <v>0.8891397671321961</v>
+        <v>0.889139767132196</v>
       </c>
       <c r="N14">
-        <v>0.8891397671321961</v>
+        <v>0.889139767132196</v>
       </c>
       <c r="O14">
-        <v>0.8530472699519529</v>
+        <v>0.8530472699519528</v>
       </c>
       <c r="P14">
         <v>0.9090754541152221</v>
@@ -1410,7 +1362,7 @@
         <v>1.000349146330018</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.114500948424145</v>
+        <v>0.9797230111250644</v>
       </c>
       <c r="D15">
         <v>0.920854348411776</v>
       </c>
       <c r="E15">
-        <v>0.9797230111250644</v>
+        <v>1.114500948424145</v>
       </c>
       <c r="F15">
+        <v>0.920854348411776</v>
+      </c>
+      <c r="G15">
         <v>1.114500948424145</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1.044247981991259</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.9377645740754055</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1.018930492568054</v>
-      </c>
-      <c r="J15">
-        <v>0.920854348411776</v>
       </c>
       <c r="K15">
         <v>1.114500948424145</v>
@@ -1472,7 +1424,7 @@
         <v>1.002670226099284</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9995371047943453</v>
+        <v>0.755257594077552</v>
       </c>
       <c r="D16">
-        <v>1.000554248413922</v>
+        <v>1.738191824876173</v>
       </c>
       <c r="E16">
-        <v>1.000101656139853</v>
+        <v>0.9631180099644088</v>
       </c>
       <c r="F16">
-        <v>0.9995371047943453</v>
+        <v>1.738191824876173</v>
       </c>
       <c r="G16">
-        <v>1.00040257213798</v>
+        <v>0.9631180099644088</v>
       </c>
       <c r="H16">
-        <v>1.00006900548248</v>
+        <v>0.4598139984515074</v>
       </c>
       <c r="I16">
-        <v>0.9999351658793619</v>
+        <v>1.382348861510182</v>
       </c>
       <c r="J16">
-        <v>1.000554248413922</v>
+        <v>0.8156526480191028</v>
       </c>
       <c r="K16">
-        <v>0.9995371047943453</v>
+        <v>0.9631180099644088</v>
       </c>
       <c r="L16">
-        <v>1.000101656139853</v>
+        <v>0.755257594077552</v>
       </c>
       <c r="M16">
-        <v>1.000327952276888</v>
+        <v>1.246724709476862</v>
       </c>
       <c r="N16">
-        <v>1.000327952276888</v>
+        <v>1.246724709476862</v>
       </c>
       <c r="O16">
-        <v>1.000241636678752</v>
+        <v>1.291932760154636</v>
       </c>
       <c r="P16">
-        <v>1.000064336449374</v>
+        <v>1.152189142972711</v>
       </c>
       <c r="Q16">
-        <v>1.000064336449374</v>
+        <v>1.152189142972711</v>
       </c>
       <c r="R16">
-        <v>0.9999325285356165</v>
+        <v>1.104921359720636</v>
       </c>
       <c r="S16">
-        <v>0.9999325285356165</v>
+        <v>1.104921359720636</v>
       </c>
       <c r="T16">
-        <v>1.00009995880799</v>
+        <v>1.019063822816488</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9994037099562307</v>
+        <v>0.8109660952211574</v>
       </c>
       <c r="D17">
-        <v>1.003866385975271</v>
+        <v>1.619091076746878</v>
       </c>
       <c r="E17">
-        <v>0.9990378467909617</v>
+        <v>0.9401314621160534</v>
       </c>
       <c r="F17">
-        <v>0.9994037099562307</v>
+        <v>1.619091076746878</v>
       </c>
       <c r="G17">
-        <v>0.9981248687760249</v>
+        <v>0.9401314621160534</v>
       </c>
       <c r="H17">
-        <v>1.001680976504458</v>
+        <v>0.5859454736058768</v>
       </c>
       <c r="I17">
-        <v>0.9991457905094707</v>
+        <v>1.312944213467482</v>
       </c>
       <c r="J17">
-        <v>1.003866385975271</v>
+        <v>0.8484641748608247</v>
       </c>
       <c r="K17">
-        <v>0.9994037099562307</v>
+        <v>0.9401314621160534</v>
       </c>
       <c r="L17">
-        <v>0.9990378467909617</v>
+        <v>0.8109660952211574</v>
       </c>
       <c r="M17">
-        <v>1.001452116383116</v>
+        <v>1.215028585984018</v>
       </c>
       <c r="N17">
-        <v>1.001452116383116</v>
+        <v>1.215028585984018</v>
       </c>
       <c r="O17">
-        <v>1.00152840309023</v>
+        <v>1.247667128478506</v>
       </c>
       <c r="P17">
-        <v>1.000769314240821</v>
+        <v>1.123396211361363</v>
       </c>
       <c r="Q17">
-        <v>1.000769314240821</v>
+        <v>1.123396211361363</v>
       </c>
       <c r="R17">
-        <v>1.000427913169674</v>
+        <v>1.077580024050036</v>
       </c>
       <c r="S17">
-        <v>1.000427913169674</v>
+        <v>1.077580024050036</v>
       </c>
       <c r="T17">
-        <v>1.00020992975207</v>
+        <v>1.019590416003045</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9990067740253633</v>
+        <v>0.9225812952355582</v>
       </c>
       <c r="D18">
-        <v>1.011583463775027</v>
+        <v>1.377605214638224</v>
       </c>
       <c r="E18">
-        <v>0.9963371805324617</v>
+        <v>0.8958505932968427</v>
       </c>
       <c r="F18">
-        <v>0.9990067740253633</v>
+        <v>1.377605214638224</v>
       </c>
       <c r="G18">
-        <v>0.9917376872546708</v>
+        <v>0.8958505932968427</v>
       </c>
       <c r="H18">
-        <v>1.006047405935547</v>
+        <v>0.8383033488072482</v>
       </c>
       <c r="I18">
-        <v>0.997094748882918</v>
+        <v>1.172944216632871</v>
       </c>
       <c r="J18">
-        <v>1.011583463775027</v>
+        <v>0.9147184687648762</v>
       </c>
       <c r="K18">
-        <v>0.9990067740253633</v>
+        <v>0.8958505932968427</v>
       </c>
       <c r="L18">
-        <v>0.9963371805324617</v>
+        <v>0.9225812952355582</v>
       </c>
       <c r="M18">
-        <v>1.003960322153745</v>
+        <v>1.150093254936891</v>
       </c>
       <c r="N18">
-        <v>1.003960322153745</v>
+        <v>1.150093254936891</v>
       </c>
       <c r="O18">
-        <v>1.004656016747679</v>
+        <v>1.157710242168885</v>
       </c>
       <c r="P18">
-        <v>1.002309139444284</v>
+        <v>1.065345701056875</v>
       </c>
       <c r="Q18">
-        <v>1.002309139444284</v>
+        <v>1.065345701056875</v>
       </c>
       <c r="R18">
-        <v>1.001483548089554</v>
+        <v>1.022971924116867</v>
       </c>
       <c r="S18">
-        <v>1.001483548089554</v>
+        <v>1.022971924116867</v>
       </c>
       <c r="T18">
-        <v>1.000301210067665</v>
+        <v>1.02033385622927</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9117850317794156</v>
+      </c>
+      <c r="D19">
+        <v>1.445544727006341</v>
+      </c>
+      <c r="E19">
+        <v>0.8828859964094443</v>
+      </c>
+      <c r="F19">
+        <v>1.445544727006341</v>
+      </c>
+      <c r="G19">
+        <v>0.8828859964094443</v>
+      </c>
+      <c r="H19">
+        <v>0.8484107391007747</v>
+      </c>
+      <c r="I19">
+        <v>1.186734848618607</v>
+      </c>
+      <c r="J19">
+        <v>0.9032661529134031</v>
+      </c>
+      <c r="K19">
+        <v>0.8828859964094443</v>
+      </c>
+      <c r="L19">
+        <v>0.9117850317794156</v>
+      </c>
+      <c r="M19">
+        <v>1.178664879392878</v>
+      </c>
+      <c r="N19">
+        <v>1.178664879392878</v>
+      </c>
+      <c r="O19">
+        <v>1.181354869134788</v>
+      </c>
+      <c r="P19">
+        <v>1.0800719183984</v>
+      </c>
+      <c r="Q19">
+        <v>1.0800719183984</v>
+      </c>
+      <c r="R19">
+        <v>1.030775437901161</v>
+      </c>
+      <c r="S19">
+        <v>1.030775437901161</v>
+      </c>
+      <c r="T19">
+        <v>1.029771249304664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000101656139853</v>
+      </c>
+      <c r="D20">
+        <v>1.000554248413922</v>
+      </c>
+      <c r="E20">
+        <v>0.9995371047943453</v>
+      </c>
+      <c r="F20">
+        <v>1.000554248413922</v>
+      </c>
+      <c r="G20">
+        <v>0.9995371047943453</v>
+      </c>
+      <c r="H20">
+        <v>1.00040257213798</v>
+      </c>
+      <c r="I20">
+        <v>1.00006900548248</v>
+      </c>
+      <c r="J20">
+        <v>0.9999351658793617</v>
+      </c>
+      <c r="K20">
+        <v>0.9995371047943453</v>
+      </c>
+      <c r="L20">
+        <v>1.000101656139853</v>
+      </c>
+      <c r="M20">
+        <v>1.000327952276888</v>
+      </c>
+      <c r="N20">
+        <v>1.000327952276888</v>
+      </c>
+      <c r="O20">
+        <v>1.000241636678752</v>
+      </c>
+      <c r="P20">
+        <v>1.000064336449374</v>
+      </c>
+      <c r="Q20">
+        <v>1.000064336449374</v>
+      </c>
+      <c r="R20">
+        <v>0.9999325285356164</v>
+      </c>
+      <c r="S20">
+        <v>0.9999325285356164</v>
+      </c>
+      <c r="T20">
+        <v>1.00009995880799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9990378467909614</v>
+      </c>
+      <c r="D21">
+        <v>1.003866385975271</v>
+      </c>
+      <c r="E21">
+        <v>0.9994037099562305</v>
+      </c>
+      <c r="F21">
+        <v>1.003866385975271</v>
+      </c>
+      <c r="G21">
+        <v>0.9994037099562305</v>
+      </c>
+      <c r="H21">
+        <v>0.9981248687760244</v>
+      </c>
+      <c r="I21">
+        <v>1.001680976504458</v>
+      </c>
+      <c r="J21">
+        <v>0.9991457905094707</v>
+      </c>
+      <c r="K21">
+        <v>0.9994037099562305</v>
+      </c>
+      <c r="L21">
+        <v>0.9990378467909614</v>
+      </c>
+      <c r="M21">
+        <v>1.001452116383116</v>
+      </c>
+      <c r="N21">
+        <v>1.001452116383116</v>
+      </c>
+      <c r="O21">
+        <v>1.00152840309023</v>
+      </c>
+      <c r="P21">
+        <v>1.000769314240821</v>
+      </c>
+      <c r="Q21">
+        <v>1.000769314240821</v>
+      </c>
+      <c r="R21">
+        <v>1.000427913169673</v>
+      </c>
+      <c r="S21">
+        <v>1.000427913169673</v>
+      </c>
+      <c r="T21">
+        <v>1.000209929752069</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9963371805324616</v>
+      </c>
+      <c r="D22">
+        <v>1.011583463775029</v>
+      </c>
+      <c r="E22">
+        <v>0.9990067740253636</v>
+      </c>
+      <c r="F22">
+        <v>1.011583463775029</v>
+      </c>
+      <c r="G22">
+        <v>0.9990067740253636</v>
+      </c>
+      <c r="H22">
+        <v>0.9917376872546707</v>
+      </c>
+      <c r="I22">
+        <v>1.006047405935547</v>
+      </c>
+      <c r="J22">
+        <v>0.997094748882918</v>
+      </c>
+      <c r="K22">
+        <v>0.9990067740253636</v>
+      </c>
+      <c r="L22">
+        <v>0.9963371805324616</v>
+      </c>
+      <c r="M22">
+        <v>1.003960322153745</v>
+      </c>
+      <c r="N22">
+        <v>1.003960322153745</v>
+      </c>
+      <c r="O22">
+        <v>1.004656016747679</v>
+      </c>
+      <c r="P22">
+        <v>1.002309139444285</v>
+      </c>
+      <c r="Q22">
+        <v>1.002309139444285</v>
+      </c>
+      <c r="R22">
+        <v>1.001483548089554</v>
+      </c>
+      <c r="S22">
+        <v>1.001483548089554</v>
+      </c>
+      <c r="T22">
+        <v>1.000301210067665</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9906740079393591</v>
+      </c>
+      <c r="D23">
+        <v>1.026857965924356</v>
+      </c>
+      <c r="E23">
         <v>0.9994304533407604</v>
       </c>
-      <c r="D19">
+      <c r="F23">
         <v>1.026857965924356</v>
       </c>
-      <c r="E19">
+      <c r="G23">
+        <v>0.9994304533407604</v>
+      </c>
+      <c r="H23">
+        <v>0.9792673669471218</v>
+      </c>
+      <c r="I23">
+        <v>1.014118546528313</v>
+      </c>
+      <c r="J23">
+        <v>0.9932076470964663</v>
+      </c>
+      <c r="K23">
+        <v>0.9994304533407604</v>
+      </c>
+      <c r="L23">
         <v>0.9906740079393591</v>
       </c>
-      <c r="F19">
-        <v>0.9994304533407604</v>
-      </c>
-      <c r="G19">
-        <v>0.9792673669471219</v>
-      </c>
-      <c r="H19">
-        <v>1.014118546528313</v>
-      </c>
-      <c r="I19">
-        <v>0.9932076470964663</v>
-      </c>
-      <c r="J19">
-        <v>1.026857965924356</v>
-      </c>
-      <c r="K19">
-        <v>0.9994304533407604</v>
-      </c>
-      <c r="L19">
-        <v>0.9906740079393591</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.008765986931857</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.008765986931857</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.010550173464009</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.005654142401492</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.005654142401492</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.004098220136309</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.004098220136309</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000592664629396</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/ShearF-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW20.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 1, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9869327978028275</v>
+        <v>0.9081823531628253</v>
       </c>
       <c r="D3">
-        <v>1.038089840198896</v>
+        <v>1.449339625583576</v>
       </c>
       <c r="E3">
-        <v>0.9991364103915978</v>
+        <v>0.8788915965778105</v>
       </c>
       <c r="F3">
-        <v>1.038089840198896</v>
+        <v>1.449339625583576</v>
       </c>
       <c r="G3">
-        <v>0.9991364103915978</v>
+        <v>0.8788915965778105</v>
       </c>
       <c r="H3">
-        <v>0.9718900980355997</v>
+        <v>0.8151365083638326</v>
       </c>
       <c r="I3">
-        <v>1.019559892995334</v>
+        <v>1.201591782118154</v>
       </c>
       <c r="J3">
-        <v>0.9904768816954347</v>
+        <v>0.8995313213832831</v>
       </c>
       <c r="K3">
-        <v>0.9991364103915978</v>
+        <v>0.8788915965778105</v>
       </c>
       <c r="L3">
-        <v>0.9869327978028275</v>
+        <v>0.9081823531628253</v>
       </c>
       <c r="M3">
-        <v>1.012511319000862</v>
+        <v>1.178760989373201</v>
       </c>
       <c r="N3">
-        <v>1.012511319000862</v>
+        <v>1.178760989373201</v>
       </c>
       <c r="O3">
-        <v>1.014860843665686</v>
+        <v>1.186371253621519</v>
       </c>
       <c r="P3">
-        <v>1.008053016131107</v>
+        <v>1.07880452510807</v>
       </c>
       <c r="Q3">
-        <v>1.008053016131107</v>
+        <v>1.07880452510807</v>
       </c>
       <c r="R3">
-        <v>1.00582386469623</v>
+        <v>1.028826292975505</v>
       </c>
       <c r="S3">
-        <v>1.00582386469623</v>
+        <v>1.028826292975505</v>
       </c>
       <c r="T3">
-        <v>1.001014320186615</v>
+        <v>1.025445531198247</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9750761903524402</v>
+        <v>0.9162705237737644</v>
       </c>
       <c r="D4">
-        <v>1.072908334261707</v>
+        <v>1.411804560504843</v>
       </c>
       <c r="E4">
-        <v>0.9979270591049408</v>
+        <v>0.8866409498071154</v>
       </c>
       <c r="F4">
-        <v>1.072908334261707</v>
+        <v>1.411804560504843</v>
       </c>
       <c r="G4">
-        <v>0.9979270591049408</v>
+        <v>0.8866409498071154</v>
       </c>
       <c r="H4">
-        <v>0.9455176546297438</v>
+        <v>0.8285560318352594</v>
       </c>
       <c r="I4">
-        <v>1.037798343618565</v>
+        <v>1.186442930182638</v>
       </c>
       <c r="J4">
-        <v>0.9817120679331135</v>
+        <v>0.9075477789414891</v>
       </c>
       <c r="K4">
-        <v>0.9979270591049408</v>
+        <v>0.8866409498071154</v>
       </c>
       <c r="L4">
-        <v>0.9750761903524402</v>
+        <v>0.9162705237737644</v>
       </c>
       <c r="M4">
-        <v>1.023992262307073</v>
+        <v>1.164037542139304</v>
       </c>
       <c r="N4">
-        <v>1.023992262307073</v>
+        <v>1.164037542139304</v>
       </c>
       <c r="O4">
-        <v>1.028594289410904</v>
+        <v>1.171506004820415</v>
       </c>
       <c r="P4">
-        <v>1.015303861239696</v>
+        <v>1.071572011361908</v>
       </c>
       <c r="Q4">
-        <v>1.015303861239696</v>
+        <v>1.071572011361908</v>
       </c>
       <c r="R4">
-        <v>1.010959660706007</v>
+        <v>1.02533924597321</v>
       </c>
       <c r="S4">
-        <v>1.010959660706007</v>
+        <v>1.02533924597321</v>
       </c>
       <c r="T4">
-        <v>1.001823274983418</v>
+        <v>1.022877129174185</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9520693070018922</v>
+        <v>0.8928232414285714</v>
       </c>
       <c r="D5">
-        <v>1.14142267861406</v>
+        <v>1.520354618296499</v>
       </c>
       <c r="E5">
-        <v>0.9957633754460354</v>
+        <v>0.8644376084905656</v>
       </c>
       <c r="F5">
-        <v>1.14142267861406</v>
+        <v>1.520354618296499</v>
       </c>
       <c r="G5">
-        <v>0.9957633754460354</v>
+        <v>0.8644376084905656</v>
       </c>
       <c r="H5">
-        <v>0.8969245182126855</v>
+        <v>0.7896474402479786</v>
       </c>
       <c r="I5">
-        <v>1.072364737022095</v>
+        <v>1.230194565309974</v>
       </c>
       <c r="J5">
-        <v>0.9647536229254553</v>
+        <v>0.8843824345552569</v>
       </c>
       <c r="K5">
-        <v>0.9957633754460354</v>
+        <v>0.8644376084905656</v>
       </c>
       <c r="L5">
-        <v>0.9520693070018922</v>
+        <v>0.8928232414285714</v>
       </c>
       <c r="M5">
-        <v>1.046745992807976</v>
+        <v>1.206588929862535</v>
       </c>
       <c r="N5">
-        <v>1.046745992807976</v>
+        <v>1.206588929862535</v>
       </c>
       <c r="O5">
-        <v>1.055285574212683</v>
+        <v>1.214457475011682</v>
       </c>
       <c r="P5">
-        <v>1.029751787020663</v>
+        <v>1.092538489405212</v>
       </c>
       <c r="Q5">
-        <v>1.029751787020663</v>
+        <v>1.092538489405212</v>
       </c>
       <c r="R5">
-        <v>1.021254684127006</v>
+        <v>1.03551326917655</v>
       </c>
       <c r="S5">
-        <v>1.021254684127006</v>
+        <v>1.03551326917655</v>
       </c>
       <c r="T5">
-        <v>1.003883039870371</v>
+        <v>1.030306651388141</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9294331644839061</v>
+        <v>0.8784839096022731</v>
       </c>
       <c r="D6">
-        <v>1.208168654849316</v>
+        <v>1.586342180198864</v>
       </c>
       <c r="E6">
-        <v>0.9934754554787393</v>
+        <v>0.8512545878409074</v>
       </c>
       <c r="F6">
-        <v>1.208168654849316</v>
+        <v>1.586342180198864</v>
       </c>
       <c r="G6">
-        <v>0.9934754554787393</v>
+        <v>0.8512545878409074</v>
       </c>
       <c r="H6">
-        <v>0.8503054743345732</v>
+        <v>0.765843691534091</v>
       </c>
       <c r="I6">
-        <v>1.106363561317414</v>
+        <v>1.25670286181818</v>
       </c>
       <c r="J6">
-        <v>0.9479821603137548</v>
+        <v>0.8703274405681821</v>
       </c>
       <c r="K6">
-        <v>0.9934754554787393</v>
+        <v>0.8512545878409074</v>
       </c>
       <c r="L6">
-        <v>0.9294331644839061</v>
+        <v>0.8784839096022731</v>
       </c>
       <c r="M6">
-        <v>1.068800909666611</v>
+        <v>1.232413044900568</v>
       </c>
       <c r="N6">
-        <v>1.068800909666611</v>
+        <v>1.232413044900568</v>
       </c>
       <c r="O6">
-        <v>1.081321793550212</v>
+        <v>1.240509650539772</v>
       </c>
       <c r="P6">
-        <v>1.043692424937321</v>
+        <v>1.105360225880681</v>
       </c>
       <c r="Q6">
-        <v>1.04369242493732</v>
+        <v>1.105360225880681</v>
       </c>
       <c r="R6">
-        <v>1.031138182572675</v>
+        <v>1.041833816370738</v>
       </c>
       <c r="S6">
-        <v>1.031138182572675</v>
+        <v>1.041833816370738</v>
       </c>
       <c r="T6">
-        <v>1.005954745129617</v>
+        <v>1.03482577859375</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9993716029204581</v>
+        <v>1.133970842153698</v>
       </c>
       <c r="D7">
-        <v>1.003058643856976</v>
+        <v>0.8245904550414529</v>
       </c>
       <c r="E7">
-        <v>0.9992890295762914</v>
+        <v>0.9045107008784352</v>
       </c>
       <c r="F7">
-        <v>1.003058643856976</v>
+        <v>0.8245904550414529</v>
       </c>
       <c r="G7">
-        <v>0.9992890295762914</v>
+        <v>0.9045107008784352</v>
       </c>
       <c r="H7">
-        <v>0.9988733914290444</v>
+        <v>1.47424693496446</v>
       </c>
       <c r="I7">
-        <v>1.001262800696823</v>
+        <v>0.8135731086439069</v>
       </c>
       <c r="J7">
-        <v>0.9993455179504575</v>
+        <v>1.065588756875991</v>
       </c>
       <c r="K7">
-        <v>0.9992890295762914</v>
+        <v>0.9045107008784352</v>
       </c>
       <c r="L7">
-        <v>0.9993716029204581</v>
+        <v>1.133970842153698</v>
       </c>
       <c r="M7">
-        <v>1.001215123388717</v>
+        <v>0.9792806485975755</v>
       </c>
       <c r="N7">
-        <v>1.001215123388717</v>
+        <v>0.9792806485975755</v>
       </c>
       <c r="O7">
-        <v>1.001231015824753</v>
+        <v>0.9240448019463526</v>
       </c>
       <c r="P7">
-        <v>1.000573092117909</v>
+        <v>0.9543573326911954</v>
       </c>
       <c r="Q7">
-        <v>1.000573092117909</v>
+        <v>0.9543573326911954</v>
       </c>
       <c r="R7">
-        <v>1.000252076482504</v>
+        <v>0.9418956747380054</v>
       </c>
       <c r="S7">
-        <v>1.000252076482504</v>
+        <v>0.9418956747380054</v>
       </c>
       <c r="T7">
-        <v>1.000200164405008</v>
+        <v>1.036080133092991</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9984364582986048</v>
+        <v>1.130982459192274</v>
       </c>
       <c r="D8">
-        <v>1.007123634732989</v>
+        <v>0.8344367663395904</v>
       </c>
       <c r="E8">
-        <v>0.9985599813978137</v>
+        <v>0.9041808864503452</v>
       </c>
       <c r="F8">
-        <v>1.007123634732989</v>
+        <v>0.8344367663395904</v>
       </c>
       <c r="G8">
-        <v>0.9985599813978137</v>
+        <v>0.9041808864503452</v>
       </c>
       <c r="H8">
-        <v>0.9972597759496106</v>
+        <v>1.467925981547674</v>
       </c>
       <c r="I8">
-        <v>1.002932359288543</v>
+        <v>0.8180078256798523</v>
       </c>
       <c r="J8">
-        <v>0.9984672414543905</v>
+        <v>1.063368821033031</v>
       </c>
       <c r="K8">
-        <v>0.9985599813978137</v>
+        <v>0.9041808864503452</v>
       </c>
       <c r="L8">
-        <v>0.9984364582986048</v>
+        <v>1.130982459192274</v>
       </c>
       <c r="M8">
-        <v>1.002780046515797</v>
+        <v>0.9827096127659322</v>
       </c>
       <c r="N8">
-        <v>1.002780046515797</v>
+        <v>0.9827096127659322</v>
       </c>
       <c r="O8">
-        <v>1.002830817440046</v>
+        <v>0.9278090170705723</v>
       </c>
       <c r="P8">
-        <v>1.001373358143136</v>
+        <v>0.9565333706607365</v>
       </c>
       <c r="Q8">
-        <v>1.001373358143136</v>
+        <v>0.9565333706607365</v>
       </c>
       <c r="R8">
-        <v>1.000670013956805</v>
+        <v>0.9434452496081387</v>
       </c>
       <c r="S8">
-        <v>1.000670013956805</v>
+        <v>0.9434452496081387</v>
       </c>
       <c r="T8">
-        <v>1.000463241853659</v>
+        <v>1.036483790040461</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9978243796067214</v>
+        <v>1.128591573998211</v>
       </c>
       <c r="D9">
-        <v>1.009096757409688</v>
+        <v>0.8448689948571483</v>
       </c>
       <c r="E9">
-        <v>0.9984931627890197</v>
+        <v>0.9023596717162243</v>
       </c>
       <c r="F9">
-        <v>1.009096757409688</v>
+        <v>0.8448689948571483</v>
       </c>
       <c r="G9">
-        <v>0.9984931627890197</v>
+        <v>0.9023596717162243</v>
       </c>
       <c r="H9">
-        <v>0.9957859730728019</v>
+        <v>1.463503747985418</v>
       </c>
       <c r="I9">
-        <v>1.00388964321216</v>
+        <v>0.8222998439673983</v>
       </c>
       <c r="J9">
-        <v>0.9980091223870803</v>
+        <v>1.061145637597894</v>
       </c>
       <c r="K9">
-        <v>0.9984931627890197</v>
+        <v>0.9023596717162243</v>
       </c>
       <c r="L9">
-        <v>0.9978243796067214</v>
+        <v>1.128591573998211</v>
       </c>
       <c r="M9">
-        <v>1.003460568508205</v>
+        <v>0.9867302844276797</v>
       </c>
       <c r="N9">
-        <v>1.003460568508205</v>
+        <v>0.9867302844276797</v>
       </c>
       <c r="O9">
-        <v>1.003603593409523</v>
+        <v>0.931920137607586</v>
       </c>
       <c r="P9">
-        <v>1.00180476660181</v>
+        <v>0.9586067468571947</v>
       </c>
       <c r="Q9">
-        <v>1.00180476660181</v>
+        <v>0.9586067468571947</v>
       </c>
       <c r="R9">
-        <v>1.000976865648612</v>
+        <v>0.9445449780719521</v>
       </c>
       <c r="S9">
-        <v>1.000976865648612</v>
+        <v>0.9445449780719521</v>
       </c>
       <c r="T9">
-        <v>1.000516506412912</v>
+        <v>1.037128245020382</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9953755878316889</v>
+        <v>1.122123489532304</v>
       </c>
       <c r="D10">
-        <v>1.020587464322107</v>
+        <v>0.8566033155292229</v>
       </c>
       <c r="E10">
-        <v>0.9960975976587585</v>
+        <v>0.9087812074482184</v>
       </c>
       <c r="F10">
-        <v>1.020587464322107</v>
+        <v>0.8566033155292229</v>
       </c>
       <c r="G10">
-        <v>0.9960975976587585</v>
+        <v>0.9087812074482184</v>
       </c>
       <c r="H10">
-        <v>0.9913892885686411</v>
+        <v>1.449751271894632</v>
       </c>
       <c r="I10">
-        <v>1.00857968090095</v>
+        <v>0.8276088989399539</v>
       </c>
       <c r="J10">
-        <v>0.995565340510883</v>
+        <v>1.058394663068384</v>
       </c>
       <c r="K10">
-        <v>0.9960975976587585</v>
+        <v>0.9087812074482184</v>
       </c>
       <c r="L10">
-        <v>0.9953755878316889</v>
+        <v>1.122123489532304</v>
       </c>
       <c r="M10">
-        <v>1.007981526076898</v>
+        <v>0.9893634025307636</v>
       </c>
       <c r="N10">
-        <v>1.007981526076898</v>
+        <v>0.9893634025307636</v>
       </c>
       <c r="O10">
-        <v>1.008180911018248</v>
+        <v>0.9354452346671603</v>
       </c>
       <c r="P10">
-        <v>1.004020216604185</v>
+        <v>0.9625026708365819</v>
       </c>
       <c r="Q10">
-        <v>1.004020216604185</v>
+        <v>0.9625026708365819</v>
       </c>
       <c r="R10">
-        <v>1.002039561867828</v>
+        <v>0.949072304989491</v>
       </c>
       <c r="S10">
-        <v>1.002039561867828</v>
+        <v>0.949072304989491</v>
       </c>
       <c r="T10">
-        <v>1.001265826632171</v>
+        <v>1.037210474402119</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9920233156664652</v>
+        <v>0.9869408235375077</v>
       </c>
       <c r="D11">
-        <v>1.031994023397914</v>
+        <v>1.03848699472462</v>
       </c>
       <c r="E11">
-        <v>0.9953408375611013</v>
+        <v>0.9985235759045246</v>
       </c>
       <c r="F11">
-        <v>1.031994023397914</v>
+        <v>1.03848699472462</v>
       </c>
       <c r="G11">
-        <v>0.9953408375611013</v>
+        <v>0.9985235759045246</v>
       </c>
       <c r="H11">
-        <v>0.9849601346802443</v>
+        <v>0.9706543668790255</v>
       </c>
       <c r="I11">
-        <v>1.013662235334028</v>
+        <v>1.020251874081768</v>
       </c>
       <c r="J11">
-        <v>0.9929508906447841</v>
+        <v>0.9903031962845457</v>
       </c>
       <c r="K11">
-        <v>0.9953408375611013</v>
+        <v>0.9985235759045246</v>
       </c>
       <c r="L11">
-        <v>0.9920233156664652</v>
+        <v>0.9869408235375077</v>
       </c>
       <c r="M11">
-        <v>1.012008669532189</v>
+        <v>1.012713909131064</v>
       </c>
       <c r="N11">
-        <v>1.012008669532189</v>
+        <v>1.012713909131064</v>
       </c>
       <c r="O11">
-        <v>1.012559858132802</v>
+        <v>1.015226564114632</v>
       </c>
       <c r="P11">
-        <v>1.006452725541827</v>
+        <v>1.007983798055551</v>
       </c>
       <c r="Q11">
-        <v>1.006452725541827</v>
+        <v>1.007983798055551</v>
       </c>
       <c r="R11">
-        <v>1.003674753546645</v>
+        <v>1.005618742517794</v>
       </c>
       <c r="S11">
-        <v>1.003674753546645</v>
+        <v>1.005618742517794</v>
       </c>
       <c r="T11">
-        <v>1.00182190621409</v>
+        <v>1.000860138568665</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9294315679662116</v>
+        <v>0.9942749374807421</v>
       </c>
       <c r="D12">
-        <v>0.6474123980439751</v>
+        <v>1.017545892075859</v>
       </c>
       <c r="E12">
-        <v>1.383247727733637</v>
+        <v>0.9993075088723385</v>
       </c>
       <c r="F12">
-        <v>0.6474123980439751</v>
+        <v>1.017545892075859</v>
       </c>
       <c r="G12">
-        <v>1.383247727733637</v>
+        <v>0.9993075088723385</v>
       </c>
       <c r="H12">
-        <v>0.7695134981280535</v>
+        <v>0.9887078353944203</v>
       </c>
       <c r="I12">
-        <v>0.8916722145036236</v>
+        <v>1.008483501473892</v>
       </c>
       <c r="J12">
-        <v>1.062021937385172</v>
+        <v>0.9957301627885898</v>
       </c>
       <c r="K12">
-        <v>1.383247727733637</v>
+        <v>0.9993075088723385</v>
       </c>
       <c r="L12">
-        <v>0.9294315679662116</v>
+        <v>0.9942749374807421</v>
       </c>
       <c r="M12">
-        <v>0.7884219830050934</v>
+        <v>1.0059104147783</v>
       </c>
       <c r="N12">
-        <v>0.7884219830050934</v>
+        <v>1.0059104147783</v>
       </c>
       <c r="O12">
-        <v>0.8228387268379368</v>
+        <v>1.006768110343498</v>
       </c>
       <c r="P12">
-        <v>0.9866972312479413</v>
+        <v>1.00370944614298</v>
       </c>
       <c r="Q12">
-        <v>0.9866972312479413</v>
+        <v>1.00370944614298</v>
       </c>
       <c r="R12">
-        <v>1.085834855369365</v>
+        <v>1.00260896182532</v>
       </c>
       <c r="S12">
-        <v>1.085834855369365</v>
+        <v>1.00260896182532</v>
       </c>
       <c r="T12">
-        <v>0.9472165572934456</v>
+        <v>1.000674973014307</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.069688241736297</v>
+        <v>0.9801719675541699</v>
       </c>
       <c r="D13">
-        <v>1.013927747195857</v>
+        <v>1.056208470588536</v>
       </c>
       <c r="E13">
-        <v>0.8574694106388464</v>
+        <v>1.001157589487475</v>
       </c>
       <c r="F13">
-        <v>1.013927747195857</v>
+        <v>1.056208470588536</v>
       </c>
       <c r="G13">
-        <v>0.8574694106388464</v>
+        <v>1.001157589487475</v>
       </c>
       <c r="H13">
-        <v>1.165039530280905</v>
+        <v>0.962131591377993</v>
       </c>
       <c r="I13">
-        <v>0.9798262988859499</v>
+        <v>1.0268781592452</v>
       </c>
       <c r="J13">
-        <v>1.007695936101689</v>
+        <v>0.9862757479172792</v>
       </c>
       <c r="K13">
-        <v>0.8574694106388464</v>
+        <v>1.001157589487475</v>
       </c>
       <c r="L13">
-        <v>1.069688241736297</v>
+        <v>0.9801719675541699</v>
       </c>
       <c r="M13">
-        <v>1.041807994466077</v>
+        <v>1.018190219071353</v>
       </c>
       <c r="N13">
-        <v>1.041807994466077</v>
+        <v>1.018190219071353</v>
       </c>
       <c r="O13">
-        <v>1.021147429272701</v>
+        <v>1.021086199129302</v>
       </c>
       <c r="P13">
-        <v>0.9803617998570003</v>
+        <v>1.012512675876727</v>
       </c>
       <c r="Q13">
-        <v>0.9803617998570003</v>
+        <v>1.012512675876727</v>
       </c>
       <c r="R13">
-        <v>0.9496387025524619</v>
+        <v>1.009673904279414</v>
       </c>
       <c r="S13">
-        <v>0.9496387025524619</v>
+        <v>1.009673904279414</v>
       </c>
       <c r="T13">
-        <v>1.015607860806591</v>
+        <v>1.002137254361776</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.165048391102379</v>
+        <v>0.9643538795748782</v>
       </c>
       <c r="D14">
-        <v>0.6132311431620125</v>
+        <v>1.106277501960046</v>
       </c>
       <c r="E14">
-        <v>0.9489468280812742</v>
+        <v>0.996039187792958</v>
       </c>
       <c r="F14">
-        <v>0.6132311431620125</v>
+        <v>1.106277501960046</v>
       </c>
       <c r="G14">
-        <v>0.9489468280812742</v>
+        <v>0.996039187792958</v>
       </c>
       <c r="H14">
-        <v>1.391676314260136</v>
+        <v>0.9227714175576501</v>
       </c>
       <c r="I14">
-        <v>0.7808622755914665</v>
+        <v>1.054434578447205</v>
       </c>
       <c r="J14">
-        <v>1.102329925782838</v>
+        <v>0.9735560525966122</v>
       </c>
       <c r="K14">
-        <v>0.9489468280812742</v>
+        <v>0.996039187792958</v>
       </c>
       <c r="L14">
-        <v>1.165048391102379</v>
+        <v>0.9643538795748782</v>
       </c>
       <c r="M14">
-        <v>0.889139767132196</v>
+        <v>1.035315690767462</v>
       </c>
       <c r="N14">
-        <v>0.889139767132196</v>
+        <v>1.035315690767462</v>
       </c>
       <c r="O14">
-        <v>0.8530472699519528</v>
+        <v>1.041688653327376</v>
       </c>
       <c r="P14">
-        <v>0.9090754541152221</v>
+        <v>1.022223523109294</v>
       </c>
       <c r="Q14">
-        <v>0.9090754541152221</v>
+        <v>1.022223523109294</v>
       </c>
       <c r="R14">
-        <v>0.9190432976067351</v>
+        <v>1.01567743928021</v>
       </c>
       <c r="S14">
-        <v>0.9190432976067351</v>
+        <v>1.01567743928021</v>
       </c>
       <c r="T14">
-        <v>1.000349146330018</v>
+        <v>1.002905436321558</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9797230111250644</v>
+        <v>0.9869327978028275</v>
       </c>
       <c r="D15">
-        <v>0.920854348411776</v>
+        <v>1.038089840198896</v>
       </c>
       <c r="E15">
-        <v>1.114500948424145</v>
+        <v>0.9991364103915978</v>
       </c>
       <c r="F15">
-        <v>0.920854348411776</v>
+        <v>1.038089840198896</v>
       </c>
       <c r="G15">
-        <v>1.114500948424145</v>
+        <v>0.9991364103915978</v>
       </c>
       <c r="H15">
-        <v>1.044247981991259</v>
+        <v>0.9718900980355997</v>
       </c>
       <c r="I15">
-        <v>0.9377645740754055</v>
+        <v>1.019559892995334</v>
       </c>
       <c r="J15">
-        <v>1.018930492568054</v>
+        <v>0.9904768816954347</v>
       </c>
       <c r="K15">
-        <v>1.114500948424145</v>
+        <v>0.9991364103915978</v>
       </c>
       <c r="L15">
-        <v>0.9797230111250644</v>
+        <v>0.9869327978028275</v>
       </c>
       <c r="M15">
-        <v>0.9502886797684202</v>
+        <v>1.012511319000862</v>
       </c>
       <c r="N15">
-        <v>0.9502886797684202</v>
+        <v>1.012511319000862</v>
       </c>
       <c r="O15">
-        <v>0.9461139778707487</v>
+        <v>1.014860843665686</v>
       </c>
       <c r="P15">
-        <v>1.005026102653662</v>
+        <v>1.008053016131107</v>
       </c>
       <c r="Q15">
-        <v>1.005026102653662</v>
+        <v>1.008053016131107</v>
       </c>
       <c r="R15">
-        <v>1.032394814096283</v>
+        <v>1.00582386469623</v>
       </c>
       <c r="S15">
-        <v>1.032394814096283</v>
+        <v>1.00582386469623</v>
       </c>
       <c r="T15">
-        <v>1.002670226099284</v>
+        <v>1.001014320186615</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.755257594077552</v>
+        <v>0.9750761903524402</v>
       </c>
       <c r="D16">
-        <v>1.738191824876173</v>
+        <v>1.072908334261707</v>
       </c>
       <c r="E16">
-        <v>0.9631180099644088</v>
+        <v>0.9979270591049408</v>
       </c>
       <c r="F16">
-        <v>1.738191824876173</v>
+        <v>1.072908334261707</v>
       </c>
       <c r="G16">
-        <v>0.9631180099644088</v>
+        <v>0.9979270591049408</v>
       </c>
       <c r="H16">
-        <v>0.4598139984515074</v>
+        <v>0.9455176546297438</v>
       </c>
       <c r="I16">
-        <v>1.382348861510182</v>
+        <v>1.037798343618565</v>
       </c>
       <c r="J16">
-        <v>0.8156526480191028</v>
+        <v>0.9817120679331135</v>
       </c>
       <c r="K16">
-        <v>0.9631180099644088</v>
+        <v>0.9979270591049408</v>
       </c>
       <c r="L16">
-        <v>0.755257594077552</v>
+        <v>0.9750761903524402</v>
       </c>
       <c r="M16">
-        <v>1.246724709476862</v>
+        <v>1.023992262307073</v>
       </c>
       <c r="N16">
-        <v>1.246724709476862</v>
+        <v>1.023992262307073</v>
       </c>
       <c r="O16">
-        <v>1.291932760154636</v>
+        <v>1.028594289410904</v>
       </c>
       <c r="P16">
-        <v>1.152189142972711</v>
+        <v>1.015303861239696</v>
       </c>
       <c r="Q16">
-        <v>1.152189142972711</v>
+        <v>1.015303861239696</v>
       </c>
       <c r="R16">
-        <v>1.104921359720636</v>
+        <v>1.010959660706007</v>
       </c>
       <c r="S16">
-        <v>1.104921359720636</v>
+        <v>1.010959660706007</v>
       </c>
       <c r="T16">
-        <v>1.019063822816488</v>
+        <v>1.001823274983418</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8109660952211574</v>
+        <v>0.9520693070018922</v>
       </c>
       <c r="D17">
-        <v>1.619091076746878</v>
+        <v>1.14142267861406</v>
       </c>
       <c r="E17">
-        <v>0.9401314621160534</v>
+        <v>0.9957633754460354</v>
       </c>
       <c r="F17">
-        <v>1.619091076746878</v>
+        <v>1.14142267861406</v>
       </c>
       <c r="G17">
-        <v>0.9401314621160534</v>
+        <v>0.9957633754460354</v>
       </c>
       <c r="H17">
-        <v>0.5859454736058768</v>
+        <v>0.8969245182126855</v>
       </c>
       <c r="I17">
-        <v>1.312944213467482</v>
+        <v>1.072364737022095</v>
       </c>
       <c r="J17">
-        <v>0.8484641748608247</v>
+        <v>0.9647536229254553</v>
       </c>
       <c r="K17">
-        <v>0.9401314621160534</v>
+        <v>0.9957633754460354</v>
       </c>
       <c r="L17">
-        <v>0.8109660952211574</v>
+        <v>0.9520693070018922</v>
       </c>
       <c r="M17">
-        <v>1.215028585984018</v>
+        <v>1.046745992807976</v>
       </c>
       <c r="N17">
-        <v>1.215028585984018</v>
+        <v>1.046745992807976</v>
       </c>
       <c r="O17">
-        <v>1.247667128478506</v>
+        <v>1.055285574212683</v>
       </c>
       <c r="P17">
-        <v>1.123396211361363</v>
+        <v>1.029751787020663</v>
       </c>
       <c r="Q17">
-        <v>1.123396211361363</v>
+        <v>1.029751787020663</v>
       </c>
       <c r="R17">
-        <v>1.077580024050036</v>
+        <v>1.021254684127006</v>
       </c>
       <c r="S17">
-        <v>1.077580024050036</v>
+        <v>1.021254684127006</v>
       </c>
       <c r="T17">
-        <v>1.019590416003045</v>
+        <v>1.003883039870371</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9225812952355582</v>
+        <v>0.9294331644839061</v>
       </c>
       <c r="D18">
-        <v>1.377605214638224</v>
+        <v>1.208168654849316</v>
       </c>
       <c r="E18">
-        <v>0.8958505932968427</v>
+        <v>0.9934754554787393</v>
       </c>
       <c r="F18">
-        <v>1.377605214638224</v>
+        <v>1.208168654849316</v>
       </c>
       <c r="G18">
-        <v>0.8958505932968427</v>
+        <v>0.9934754554787393</v>
       </c>
       <c r="H18">
-        <v>0.8383033488072482</v>
+        <v>0.8503054743345732</v>
       </c>
       <c r="I18">
-        <v>1.172944216632871</v>
+        <v>1.106363561317414</v>
       </c>
       <c r="J18">
-        <v>0.9147184687648762</v>
+        <v>0.9479821603137548</v>
       </c>
       <c r="K18">
-        <v>0.8958505932968427</v>
+        <v>0.9934754554787393</v>
       </c>
       <c r="L18">
-        <v>0.9225812952355582</v>
+        <v>0.9294331644839061</v>
       </c>
       <c r="M18">
-        <v>1.150093254936891</v>
+        <v>1.068800909666611</v>
       </c>
       <c r="N18">
-        <v>1.150093254936891</v>
+        <v>1.068800909666611</v>
       </c>
       <c r="O18">
-        <v>1.157710242168885</v>
+        <v>1.081321793550212</v>
       </c>
       <c r="P18">
-        <v>1.065345701056875</v>
+        <v>1.043692424937321</v>
       </c>
       <c r="Q18">
-        <v>1.065345701056875</v>
+        <v>1.04369242493732</v>
       </c>
       <c r="R18">
-        <v>1.022971924116867</v>
+        <v>1.031138182572675</v>
       </c>
       <c r="S18">
-        <v>1.022971924116867</v>
+        <v>1.031138182572675</v>
       </c>
       <c r="T18">
-        <v>1.02033385622927</v>
+        <v>1.005954745129617</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9117850317794156</v>
+        <v>0.9993716029204581</v>
       </c>
       <c r="D19">
-        <v>1.445544727006341</v>
+        <v>1.003058643856976</v>
       </c>
       <c r="E19">
-        <v>0.8828859964094443</v>
+        <v>0.9992890295762914</v>
       </c>
       <c r="F19">
-        <v>1.445544727006341</v>
+        <v>1.003058643856976</v>
       </c>
       <c r="G19">
-        <v>0.8828859964094443</v>
+        <v>0.9992890295762914</v>
       </c>
       <c r="H19">
-        <v>0.8484107391007747</v>
+        <v>0.9988733914290444</v>
       </c>
       <c r="I19">
-        <v>1.186734848618607</v>
+        <v>1.001262800696823</v>
       </c>
       <c r="J19">
-        <v>0.9032661529134031</v>
+        <v>0.9993455179504575</v>
       </c>
       <c r="K19">
-        <v>0.8828859964094443</v>
+        <v>0.9992890295762914</v>
       </c>
       <c r="L19">
-        <v>0.9117850317794156</v>
+        <v>0.9993716029204581</v>
       </c>
       <c r="M19">
-        <v>1.178664879392878</v>
+        <v>1.001215123388717</v>
       </c>
       <c r="N19">
-        <v>1.178664879392878</v>
+        <v>1.001215123388717</v>
       </c>
       <c r="O19">
-        <v>1.181354869134788</v>
+        <v>1.001231015824753</v>
       </c>
       <c r="P19">
-        <v>1.0800719183984</v>
+        <v>1.000573092117909</v>
       </c>
       <c r="Q19">
-        <v>1.0800719183984</v>
+        <v>1.000573092117909</v>
       </c>
       <c r="R19">
-        <v>1.030775437901161</v>
+        <v>1.000252076482504</v>
       </c>
       <c r="S19">
-        <v>1.030775437901161</v>
+        <v>1.000252076482504</v>
       </c>
       <c r="T19">
-        <v>1.029771249304664</v>
+        <v>1.000200164405008</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000101656139853</v>
+        <v>0.9984364582986048</v>
       </c>
       <c r="D20">
-        <v>1.000554248413922</v>
+        <v>1.007123634732989</v>
       </c>
       <c r="E20">
-        <v>0.9995371047943453</v>
+        <v>0.9985599813978137</v>
       </c>
       <c r="F20">
-        <v>1.000554248413922</v>
+        <v>1.007123634732989</v>
       </c>
       <c r="G20">
-        <v>0.9995371047943453</v>
+        <v>0.9985599813978137</v>
       </c>
       <c r="H20">
-        <v>1.00040257213798</v>
+        <v>0.9972597759496106</v>
       </c>
       <c r="I20">
-        <v>1.00006900548248</v>
+        <v>1.002932359288543</v>
       </c>
       <c r="J20">
-        <v>0.9999351658793617</v>
+        <v>0.9984672414543905</v>
       </c>
       <c r="K20">
-        <v>0.9995371047943453</v>
+        <v>0.9985599813978137</v>
       </c>
       <c r="L20">
-        <v>1.000101656139853</v>
+        <v>0.9984364582986048</v>
       </c>
       <c r="M20">
-        <v>1.000327952276888</v>
+        <v>1.002780046515797</v>
       </c>
       <c r="N20">
-        <v>1.000327952276888</v>
+        <v>1.002780046515797</v>
       </c>
       <c r="O20">
-        <v>1.000241636678752</v>
+        <v>1.002830817440046</v>
       </c>
       <c r="P20">
-        <v>1.000064336449374</v>
+        <v>1.001373358143136</v>
       </c>
       <c r="Q20">
-        <v>1.000064336449374</v>
+        <v>1.001373358143136</v>
       </c>
       <c r="R20">
-        <v>0.9999325285356164</v>
+        <v>1.000670013956805</v>
       </c>
       <c r="S20">
-        <v>0.9999325285356164</v>
+        <v>1.000670013956805</v>
       </c>
       <c r="T20">
-        <v>1.00009995880799</v>
+        <v>1.000463241853659</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9990378467909614</v>
+        <v>0.9978243796067214</v>
       </c>
       <c r="D21">
-        <v>1.003866385975271</v>
+        <v>1.009096757409688</v>
       </c>
       <c r="E21">
-        <v>0.9994037099562305</v>
+        <v>0.9984931627890197</v>
       </c>
       <c r="F21">
-        <v>1.003866385975271</v>
+        <v>1.009096757409688</v>
       </c>
       <c r="G21">
-        <v>0.9994037099562305</v>
+        <v>0.9984931627890197</v>
       </c>
       <c r="H21">
-        <v>0.9981248687760244</v>
+        <v>0.9957859730728019</v>
       </c>
       <c r="I21">
-        <v>1.001680976504458</v>
+        <v>1.00388964321216</v>
       </c>
       <c r="J21">
-        <v>0.9991457905094707</v>
+        <v>0.9980091223870803</v>
       </c>
       <c r="K21">
-        <v>0.9994037099562305</v>
+        <v>0.9984931627890197</v>
       </c>
       <c r="L21">
-        <v>0.9990378467909614</v>
+        <v>0.9978243796067214</v>
       </c>
       <c r="M21">
-        <v>1.001452116383116</v>
+        <v>1.003460568508205</v>
       </c>
       <c r="N21">
-        <v>1.001452116383116</v>
+        <v>1.003460568508205</v>
       </c>
       <c r="O21">
-        <v>1.00152840309023</v>
+        <v>1.003603593409523</v>
       </c>
       <c r="P21">
-        <v>1.000769314240821</v>
+        <v>1.00180476660181</v>
       </c>
       <c r="Q21">
-        <v>1.000769314240821</v>
+        <v>1.00180476660181</v>
       </c>
       <c r="R21">
-        <v>1.000427913169673</v>
+        <v>1.000976865648612</v>
       </c>
       <c r="S21">
-        <v>1.000427913169673</v>
+        <v>1.000976865648612</v>
       </c>
       <c r="T21">
-        <v>1.000209929752069</v>
+        <v>1.000516506412912</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9963371805324616</v>
+        <v>0.9953755878316889</v>
       </c>
       <c r="D22">
-        <v>1.011583463775029</v>
+        <v>1.020587464322107</v>
       </c>
       <c r="E22">
-        <v>0.9990067740253636</v>
+        <v>0.9960975976587585</v>
       </c>
       <c r="F22">
-        <v>1.011583463775029</v>
+        <v>1.020587464322107</v>
       </c>
       <c r="G22">
-        <v>0.9990067740253636</v>
+        <v>0.9960975976587585</v>
       </c>
       <c r="H22">
-        <v>0.9917376872546707</v>
+        <v>0.9913892885686411</v>
       </c>
       <c r="I22">
-        <v>1.006047405935547</v>
+        <v>1.00857968090095</v>
       </c>
       <c r="J22">
-        <v>0.997094748882918</v>
+        <v>0.995565340510883</v>
       </c>
       <c r="K22">
-        <v>0.9990067740253636</v>
+        <v>0.9960975976587585</v>
       </c>
       <c r="L22">
-        <v>0.9963371805324616</v>
+        <v>0.9953755878316889</v>
       </c>
       <c r="M22">
-        <v>1.003960322153745</v>
+        <v>1.007981526076898</v>
       </c>
       <c r="N22">
-        <v>1.003960322153745</v>
+        <v>1.007981526076898</v>
       </c>
       <c r="O22">
-        <v>1.004656016747679</v>
+        <v>1.008180911018248</v>
       </c>
       <c r="P22">
-        <v>1.002309139444285</v>
+        <v>1.004020216604185</v>
       </c>
       <c r="Q22">
-        <v>1.002309139444285</v>
+        <v>1.004020216604185</v>
       </c>
       <c r="R22">
-        <v>1.001483548089554</v>
+        <v>1.002039561867828</v>
       </c>
       <c r="S22">
-        <v>1.001483548089554</v>
+        <v>1.002039561867828</v>
       </c>
       <c r="T22">
-        <v>1.000301210067665</v>
+        <v>1.001265826632171</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9920233156664652</v>
+      </c>
+      <c r="D23">
+        <v>1.031994023397914</v>
+      </c>
+      <c r="E23">
+        <v>0.9953408375611013</v>
+      </c>
+      <c r="F23">
+        <v>1.031994023397914</v>
+      </c>
+      <c r="G23">
+        <v>0.9953408375611013</v>
+      </c>
+      <c r="H23">
+        <v>0.9849601346802443</v>
+      </c>
+      <c r="I23">
+        <v>1.013662235334028</v>
+      </c>
+      <c r="J23">
+        <v>0.9929508906447841</v>
+      </c>
+      <c r="K23">
+        <v>0.9953408375611013</v>
+      </c>
+      <c r="L23">
+        <v>0.9920233156664652</v>
+      </c>
+      <c r="M23">
+        <v>1.012008669532189</v>
+      </c>
+      <c r="N23">
+        <v>1.012008669532189</v>
+      </c>
+      <c r="O23">
+        <v>1.012559858132802</v>
+      </c>
+      <c r="P23">
+        <v>1.006452725541827</v>
+      </c>
+      <c r="Q23">
+        <v>1.006452725541827</v>
+      </c>
+      <c r="R23">
+        <v>1.003674753546645</v>
+      </c>
+      <c r="S23">
+        <v>1.003674753546645</v>
+      </c>
+      <c r="T23">
+        <v>1.00182190621409</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9294315679662116</v>
+      </c>
+      <c r="D24">
+        <v>0.6474123980439751</v>
+      </c>
+      <c r="E24">
+        <v>1.383247727733637</v>
+      </c>
+      <c r="F24">
+        <v>0.6474123980439751</v>
+      </c>
+      <c r="G24">
+        <v>1.383247727733637</v>
+      </c>
+      <c r="H24">
+        <v>0.7695134981280535</v>
+      </c>
+      <c r="I24">
+        <v>0.8916722145036236</v>
+      </c>
+      <c r="J24">
+        <v>1.062021937385172</v>
+      </c>
+      <c r="K24">
+        <v>1.383247727733637</v>
+      </c>
+      <c r="L24">
+        <v>0.9294315679662116</v>
+      </c>
+      <c r="M24">
+        <v>0.7884219830050934</v>
+      </c>
+      <c r="N24">
+        <v>0.7884219830050934</v>
+      </c>
+      <c r="O24">
+        <v>0.8228387268379368</v>
+      </c>
+      <c r="P24">
+        <v>0.9866972312479413</v>
+      </c>
+      <c r="Q24">
+        <v>0.9866972312479413</v>
+      </c>
+      <c r="R24">
+        <v>1.085834855369365</v>
+      </c>
+      <c r="S24">
+        <v>1.085834855369365</v>
+      </c>
+      <c r="T24">
+        <v>0.9472165572934456</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.069688241736297</v>
+      </c>
+      <c r="D25">
+        <v>1.013927747195857</v>
+      </c>
+      <c r="E25">
+        <v>0.8574694106388464</v>
+      </c>
+      <c r="F25">
+        <v>1.013927747195857</v>
+      </c>
+      <c r="G25">
+        <v>0.8574694106388464</v>
+      </c>
+      <c r="H25">
+        <v>1.165039530280905</v>
+      </c>
+      <c r="I25">
+        <v>0.9798262988859499</v>
+      </c>
+      <c r="J25">
+        <v>1.007695936101689</v>
+      </c>
+      <c r="K25">
+        <v>0.8574694106388464</v>
+      </c>
+      <c r="L25">
+        <v>1.069688241736297</v>
+      </c>
+      <c r="M25">
+        <v>1.041807994466077</v>
+      </c>
+      <c r="N25">
+        <v>1.041807994466077</v>
+      </c>
+      <c r="O25">
+        <v>1.021147429272701</v>
+      </c>
+      <c r="P25">
+        <v>0.9803617998570003</v>
+      </c>
+      <c r="Q25">
+        <v>0.9803617998570003</v>
+      </c>
+      <c r="R25">
+        <v>0.9496387025524619</v>
+      </c>
+      <c r="S25">
+        <v>0.9496387025524619</v>
+      </c>
+      <c r="T25">
+        <v>1.015607860806591</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.165048391102379</v>
+      </c>
+      <c r="D26">
+        <v>0.6132311431620125</v>
+      </c>
+      <c r="E26">
+        <v>0.9489468280812742</v>
+      </c>
+      <c r="F26">
+        <v>0.6132311431620125</v>
+      </c>
+      <c r="G26">
+        <v>0.9489468280812742</v>
+      </c>
+      <c r="H26">
+        <v>1.391676314260136</v>
+      </c>
+      <c r="I26">
+        <v>0.7808622755914665</v>
+      </c>
+      <c r="J26">
+        <v>1.102329925782838</v>
+      </c>
+      <c r="K26">
+        <v>0.9489468280812742</v>
+      </c>
+      <c r="L26">
+        <v>1.165048391102379</v>
+      </c>
+      <c r="M26">
+        <v>0.889139767132196</v>
+      </c>
+      <c r="N26">
+        <v>0.889139767132196</v>
+      </c>
+      <c r="O26">
+        <v>0.8530472699519528</v>
+      </c>
+      <c r="P26">
+        <v>0.9090754541152221</v>
+      </c>
+      <c r="Q26">
+        <v>0.9090754541152221</v>
+      </c>
+      <c r="R26">
+        <v>0.9190432976067351</v>
+      </c>
+      <c r="S26">
+        <v>0.9190432976067351</v>
+      </c>
+      <c r="T26">
+        <v>1.000349146330018</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9797230111250644</v>
+      </c>
+      <c r="D27">
+        <v>0.920854348411776</v>
+      </c>
+      <c r="E27">
+        <v>1.114500948424145</v>
+      </c>
+      <c r="F27">
+        <v>0.920854348411776</v>
+      </c>
+      <c r="G27">
+        <v>1.114500948424145</v>
+      </c>
+      <c r="H27">
+        <v>1.044247981991259</v>
+      </c>
+      <c r="I27">
+        <v>0.9377645740754055</v>
+      </c>
+      <c r="J27">
+        <v>1.018930492568054</v>
+      </c>
+      <c r="K27">
+        <v>1.114500948424145</v>
+      </c>
+      <c r="L27">
+        <v>0.9797230111250644</v>
+      </c>
+      <c r="M27">
+        <v>0.9502886797684202</v>
+      </c>
+      <c r="N27">
+        <v>0.9502886797684202</v>
+      </c>
+      <c r="O27">
+        <v>0.9461139778707487</v>
+      </c>
+      <c r="P27">
+        <v>1.005026102653662</v>
+      </c>
+      <c r="Q27">
+        <v>1.005026102653662</v>
+      </c>
+      <c r="R27">
+        <v>1.032394814096283</v>
+      </c>
+      <c r="S27">
+        <v>1.032394814096283</v>
+      </c>
+      <c r="T27">
+        <v>1.002670226099284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.755257594077552</v>
+      </c>
+      <c r="D28">
+        <v>1.738191824876173</v>
+      </c>
+      <c r="E28">
+        <v>0.9631180099644088</v>
+      </c>
+      <c r="F28">
+        <v>1.738191824876173</v>
+      </c>
+      <c r="G28">
+        <v>0.9631180099644088</v>
+      </c>
+      <c r="H28">
+        <v>0.4598139984515074</v>
+      </c>
+      <c r="I28">
+        <v>1.382348861510182</v>
+      </c>
+      <c r="J28">
+        <v>0.8156526480191028</v>
+      </c>
+      <c r="K28">
+        <v>0.9631180099644088</v>
+      </c>
+      <c r="L28">
+        <v>0.755257594077552</v>
+      </c>
+      <c r="M28">
+        <v>1.246724709476862</v>
+      </c>
+      <c r="N28">
+        <v>1.246724709476862</v>
+      </c>
+      <c r="O28">
+        <v>1.291932760154636</v>
+      </c>
+      <c r="P28">
+        <v>1.152189142972711</v>
+      </c>
+      <c r="Q28">
+        <v>1.152189142972711</v>
+      </c>
+      <c r="R28">
+        <v>1.104921359720636</v>
+      </c>
+      <c r="S28">
+        <v>1.104921359720636</v>
+      </c>
+      <c r="T28">
+        <v>1.019063822816488</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.8109660952211574</v>
+      </c>
+      <c r="D29">
+        <v>1.619091076746878</v>
+      </c>
+      <c r="E29">
+        <v>0.9401314621160534</v>
+      </c>
+      <c r="F29">
+        <v>1.619091076746878</v>
+      </c>
+      <c r="G29">
+        <v>0.9401314621160534</v>
+      </c>
+      <c r="H29">
+        <v>0.5859454736058768</v>
+      </c>
+      <c r="I29">
+        <v>1.312944213467482</v>
+      </c>
+      <c r="J29">
+        <v>0.8484641748608247</v>
+      </c>
+      <c r="K29">
+        <v>0.9401314621160534</v>
+      </c>
+      <c r="L29">
+        <v>0.8109660952211574</v>
+      </c>
+      <c r="M29">
+        <v>1.215028585984018</v>
+      </c>
+      <c r="N29">
+        <v>1.215028585984018</v>
+      </c>
+      <c r="O29">
+        <v>1.247667128478506</v>
+      </c>
+      <c r="P29">
+        <v>1.123396211361363</v>
+      </c>
+      <c r="Q29">
+        <v>1.123396211361363</v>
+      </c>
+      <c r="R29">
+        <v>1.077580024050036</v>
+      </c>
+      <c r="S29">
+        <v>1.077580024050036</v>
+      </c>
+      <c r="T29">
+        <v>1.019590416003045</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9225812952355582</v>
+      </c>
+      <c r="D30">
+        <v>1.377605214638224</v>
+      </c>
+      <c r="E30">
+        <v>0.8958505932968427</v>
+      </c>
+      <c r="F30">
+        <v>1.377605214638224</v>
+      </c>
+      <c r="G30">
+        <v>0.8958505932968427</v>
+      </c>
+      <c r="H30">
+        <v>0.8383033488072482</v>
+      </c>
+      <c r="I30">
+        <v>1.172944216632871</v>
+      </c>
+      <c r="J30">
+        <v>0.9147184687648762</v>
+      </c>
+      <c r="K30">
+        <v>0.8958505932968427</v>
+      </c>
+      <c r="L30">
+        <v>0.9225812952355582</v>
+      </c>
+      <c r="M30">
+        <v>1.150093254936891</v>
+      </c>
+      <c r="N30">
+        <v>1.150093254936891</v>
+      </c>
+      <c r="O30">
+        <v>1.157710242168885</v>
+      </c>
+      <c r="P30">
+        <v>1.065345701056875</v>
+      </c>
+      <c r="Q30">
+        <v>1.065345701056875</v>
+      </c>
+      <c r="R30">
+        <v>1.022971924116867</v>
+      </c>
+      <c r="S30">
+        <v>1.022971924116867</v>
+      </c>
+      <c r="T30">
+        <v>1.02033385622927</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9117850317794156</v>
+      </c>
+      <c r="D31">
+        <v>1.445544727006341</v>
+      </c>
+      <c r="E31">
+        <v>0.8828859964094443</v>
+      </c>
+      <c r="F31">
+        <v>1.445544727006341</v>
+      </c>
+      <c r="G31">
+        <v>0.8828859964094443</v>
+      </c>
+      <c r="H31">
+        <v>0.8484107391007747</v>
+      </c>
+      <c r="I31">
+        <v>1.186734848618607</v>
+      </c>
+      <c r="J31">
+        <v>0.9032661529134031</v>
+      </c>
+      <c r="K31">
+        <v>0.8828859964094443</v>
+      </c>
+      <c r="L31">
+        <v>0.9117850317794156</v>
+      </c>
+      <c r="M31">
+        <v>1.178664879392878</v>
+      </c>
+      <c r="N31">
+        <v>1.178664879392878</v>
+      </c>
+      <c r="O31">
+        <v>1.181354869134788</v>
+      </c>
+      <c r="P31">
+        <v>1.0800719183984</v>
+      </c>
+      <c r="Q31">
+        <v>1.0800719183984</v>
+      </c>
+      <c r="R31">
+        <v>1.030775437901161</v>
+      </c>
+      <c r="S31">
+        <v>1.030775437901161</v>
+      </c>
+      <c r="T31">
+        <v>1.029771249304664</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.701076531643836</v>
+      </c>
+      <c r="D32">
+        <v>1.835997022054794</v>
+      </c>
+      <c r="E32">
+        <v>0.9995425063013701</v>
+      </c>
+      <c r="F32">
+        <v>1.835997022054794</v>
+      </c>
+      <c r="G32">
+        <v>0.9995425063013701</v>
+      </c>
+      <c r="H32">
+        <v>0.337895131150685</v>
+      </c>
+      <c r="I32">
+        <v>1.441133253972603</v>
+      </c>
+      <c r="J32">
+        <v>0.7877548367123287</v>
+      </c>
+      <c r="K32">
+        <v>0.9995425063013701</v>
+      </c>
+      <c r="L32">
+        <v>0.701076531643836</v>
+      </c>
+      <c r="M32">
+        <v>1.268536776849315</v>
+      </c>
+      <c r="N32">
+        <v>1.268536776849315</v>
+      </c>
+      <c r="O32">
+        <v>1.326068935890411</v>
+      </c>
+      <c r="P32">
+        <v>1.17887202</v>
+      </c>
+      <c r="Q32">
+        <v>1.17887202</v>
+      </c>
+      <c r="R32">
+        <v>1.134039641575343</v>
+      </c>
+      <c r="S32">
+        <v>1.134039641575343</v>
+      </c>
+      <c r="T32">
+        <v>1.017233213639269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.075012418947368</v>
+      </c>
+      <c r="D33">
+        <v>1.043442563052632</v>
+      </c>
+      <c r="E33">
+        <v>0.8787117957894734</v>
+      </c>
+      <c r="F33">
+        <v>1.043442563052632</v>
+      </c>
+      <c r="G33">
+        <v>0.8787117957894734</v>
+      </c>
+      <c r="H33">
+        <v>1.346592761</v>
+      </c>
+      <c r="I33">
+        <v>0.9135578252631579</v>
+      </c>
+      <c r="J33">
+        <v>1.016213122105263</v>
+      </c>
+      <c r="K33">
+        <v>0.8787117957894734</v>
+      </c>
+      <c r="L33">
+        <v>1.075012418947368</v>
+      </c>
+      <c r="M33">
+        <v>1.059227491</v>
+      </c>
+      <c r="N33">
+        <v>1.059227491</v>
+      </c>
+      <c r="O33">
+        <v>1.010670935754386</v>
+      </c>
+      <c r="P33">
+        <v>0.9990555925964912</v>
+      </c>
+      <c r="Q33">
+        <v>0.9990555925964912</v>
+      </c>
+      <c r="R33">
+        <v>0.9689696433947368</v>
+      </c>
+      <c r="S33">
+        <v>0.9689696433947368</v>
+      </c>
+      <c r="T33">
+        <v>1.045588414359649</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.075012418947368</v>
+      </c>
+      <c r="D34">
+        <v>1.043442563052632</v>
+      </c>
+      <c r="E34">
+        <v>0.8787117957894734</v>
+      </c>
+      <c r="F34">
+        <v>1.043442563052632</v>
+      </c>
+      <c r="G34">
+        <v>0.8787117957894734</v>
+      </c>
+      <c r="H34">
+        <v>1.346592761</v>
+      </c>
+      <c r="I34">
+        <v>0.9135578252631579</v>
+      </c>
+      <c r="J34">
+        <v>1.016213122105263</v>
+      </c>
+      <c r="K34">
+        <v>0.8787117957894734</v>
+      </c>
+      <c r="L34">
+        <v>1.075012418947368</v>
+      </c>
+      <c r="M34">
+        <v>1.059227491</v>
+      </c>
+      <c r="N34">
+        <v>1.059227491</v>
+      </c>
+      <c r="O34">
+        <v>1.010670935754386</v>
+      </c>
+      <c r="P34">
+        <v>0.9990555925964912</v>
+      </c>
+      <c r="Q34">
+        <v>0.9990555925964912</v>
+      </c>
+      <c r="R34">
+        <v>0.9689696433947368</v>
+      </c>
+      <c r="S34">
+        <v>0.9689696433947368</v>
+      </c>
+      <c r="T34">
+        <v>1.045588414359649</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.6868740243434884</v>
+      </c>
+      <c r="D35">
+        <v>2.656084637647103</v>
+      </c>
+      <c r="E35">
+        <v>0.5568101562590696</v>
+      </c>
+      <c r="F35">
+        <v>2.656084637647103</v>
+      </c>
+      <c r="G35">
+        <v>0.5568101562590696</v>
+      </c>
+      <c r="H35">
+        <v>0.4484186583378973</v>
+      </c>
+      <c r="I35">
+        <v>1.679307984522861</v>
+      </c>
+      <c r="J35">
+        <v>0.6483641325109282</v>
+      </c>
+      <c r="K35">
+        <v>0.5568101562590696</v>
+      </c>
+      <c r="L35">
+        <v>0.6868740243434884</v>
+      </c>
+      <c r="M35">
+        <v>1.671479330995296</v>
+      </c>
+      <c r="N35">
+        <v>1.671479330995296</v>
+      </c>
+      <c r="O35">
+        <v>1.674088882171151</v>
+      </c>
+      <c r="P35">
+        <v>1.299922939416554</v>
+      </c>
+      <c r="Q35">
+        <v>1.299922939416554</v>
+      </c>
+      <c r="R35">
+        <v>1.114144743627183</v>
+      </c>
+      <c r="S35">
+        <v>1.114144743627183</v>
+      </c>
+      <c r="T35">
+        <v>1.112643265603558</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000101656139853</v>
+      </c>
+      <c r="D36">
+        <v>1.000554248413922</v>
+      </c>
+      <c r="E36">
+        <v>0.9995371047943453</v>
+      </c>
+      <c r="F36">
+        <v>1.000554248413922</v>
+      </c>
+      <c r="G36">
+        <v>0.9995371047943453</v>
+      </c>
+      <c r="H36">
+        <v>1.00040257213798</v>
+      </c>
+      <c r="I36">
+        <v>1.00006900548248</v>
+      </c>
+      <c r="J36">
+        <v>0.9999351658793617</v>
+      </c>
+      <c r="K36">
+        <v>0.9995371047943453</v>
+      </c>
+      <c r="L36">
+        <v>1.000101656139853</v>
+      </c>
+      <c r="M36">
+        <v>1.000327952276888</v>
+      </c>
+      <c r="N36">
+        <v>1.000327952276888</v>
+      </c>
+      <c r="O36">
+        <v>1.000241636678752</v>
+      </c>
+      <c r="P36">
+        <v>1.000064336449374</v>
+      </c>
+      <c r="Q36">
+        <v>1.000064336449374</v>
+      </c>
+      <c r="R36">
+        <v>0.9999325285356164</v>
+      </c>
+      <c r="S36">
+        <v>0.9999325285356164</v>
+      </c>
+      <c r="T36">
+        <v>1.00009995880799</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9990378467909614</v>
+      </c>
+      <c r="D37">
+        <v>1.003866385975271</v>
+      </c>
+      <c r="E37">
+        <v>0.9994037099562305</v>
+      </c>
+      <c r="F37">
+        <v>1.003866385975271</v>
+      </c>
+      <c r="G37">
+        <v>0.9994037099562305</v>
+      </c>
+      <c r="H37">
+        <v>0.9981248687760244</v>
+      </c>
+      <c r="I37">
+        <v>1.001680976504458</v>
+      </c>
+      <c r="J37">
+        <v>0.9991457905094707</v>
+      </c>
+      <c r="K37">
+        <v>0.9994037099562305</v>
+      </c>
+      <c r="L37">
+        <v>0.9990378467909614</v>
+      </c>
+      <c r="M37">
+        <v>1.001452116383116</v>
+      </c>
+      <c r="N37">
+        <v>1.001452116383116</v>
+      </c>
+      <c r="O37">
+        <v>1.00152840309023</v>
+      </c>
+      <c r="P37">
+        <v>1.000769314240821</v>
+      </c>
+      <c r="Q37">
+        <v>1.000769314240821</v>
+      </c>
+      <c r="R37">
+        <v>1.000427913169673</v>
+      </c>
+      <c r="S37">
+        <v>1.000427913169673</v>
+      </c>
+      <c r="T37">
+        <v>1.000209929752069</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9963371805324616</v>
+      </c>
+      <c r="D38">
+        <v>1.011583463775029</v>
+      </c>
+      <c r="E38">
+        <v>0.9990067740253636</v>
+      </c>
+      <c r="F38">
+        <v>1.011583463775029</v>
+      </c>
+      <c r="G38">
+        <v>0.9990067740253636</v>
+      </c>
+      <c r="H38">
+        <v>0.9917376872546707</v>
+      </c>
+      <c r="I38">
+        <v>1.006047405935547</v>
+      </c>
+      <c r="J38">
+        <v>0.997094748882918</v>
+      </c>
+      <c r="K38">
+        <v>0.9990067740253636</v>
+      </c>
+      <c r="L38">
+        <v>0.9963371805324616</v>
+      </c>
+      <c r="M38">
+        <v>1.003960322153745</v>
+      </c>
+      <c r="N38">
+        <v>1.003960322153745</v>
+      </c>
+      <c r="O38">
+        <v>1.004656016747679</v>
+      </c>
+      <c r="P38">
+        <v>1.002309139444285</v>
+      </c>
+      <c r="Q38">
+        <v>1.002309139444285</v>
+      </c>
+      <c r="R38">
+        <v>1.001483548089554</v>
+      </c>
+      <c r="S38">
+        <v>1.001483548089554</v>
+      </c>
+      <c r="T38">
+        <v>1.000301210067665</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9906740079393591</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.026857965924356</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9994304533407604</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.026857965924356</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9994304533407604</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9792673669471218</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.014118546528313</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9932076470964663</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9994304533407604</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9906740079393591</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.008765986931857</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.008765986931857</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.010550173464009</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.005654142401492</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.005654142401492</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.004098220136309</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.004098220136309</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000592664629396</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9957856217843082</v>
+      </c>
+      <c r="D40">
+        <v>0.9017874889788284</v>
+      </c>
+      <c r="E40">
+        <v>1.085026010233661</v>
+      </c>
+      <c r="F40">
+        <v>0.9017874889788284</v>
+      </c>
+      <c r="G40">
+        <v>1.085026010233661</v>
+      </c>
+      <c r="H40">
+        <v>0.9958204495288052</v>
+      </c>
+      <c r="I40">
+        <v>0.9532010507387216</v>
+      </c>
+      <c r="J40">
+        <v>1.021543206145053</v>
+      </c>
+      <c r="K40">
+        <v>1.085026010233661</v>
+      </c>
+      <c r="L40">
+        <v>0.9957856217843082</v>
+      </c>
+      <c r="M40">
+        <v>0.9487865553815683</v>
+      </c>
+      <c r="N40">
+        <v>0.9487865553815683</v>
+      </c>
+      <c r="O40">
+        <v>0.9502580538339528</v>
+      </c>
+      <c r="P40">
+        <v>0.9941997069989327</v>
+      </c>
+      <c r="Q40">
+        <v>0.9941997069989327</v>
+      </c>
+      <c r="R40">
+        <v>1.016906282807615</v>
+      </c>
+      <c r="S40">
+        <v>1.016906282807615</v>
+      </c>
+      <c r="T40">
+        <v>0.9921939712348963</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9853261270251192</v>
+      </c>
+      <c r="D41">
+        <v>0.9943158743363202</v>
+      </c>
+      <c r="E41">
+        <v>1.030839596676049</v>
+      </c>
+      <c r="F41">
+        <v>0.9943158743363202</v>
+      </c>
+      <c r="G41">
+        <v>1.030839596676049</v>
+      </c>
+      <c r="H41">
+        <v>0.9449674732357617</v>
+      </c>
+      <c r="I41">
+        <v>1.008802046559348</v>
+      </c>
+      <c r="J41">
+        <v>0.9984901231112903</v>
+      </c>
+      <c r="K41">
+        <v>1.030839596676049</v>
+      </c>
+      <c r="L41">
+        <v>0.9853261270251192</v>
+      </c>
+      <c r="M41">
+        <v>0.9898210006807198</v>
+      </c>
+      <c r="N41">
+        <v>0.9898210006807198</v>
+      </c>
+      <c r="O41">
+        <v>0.9961480159735959</v>
+      </c>
+      <c r="P41">
+        <v>1.003493866012496</v>
+      </c>
+      <c r="Q41">
+        <v>1.003493866012496</v>
+      </c>
+      <c r="R41">
+        <v>1.010330298678384</v>
+      </c>
+      <c r="S41">
+        <v>1.010330298678384</v>
+      </c>
+      <c r="T41">
+        <v>0.9937902068239813</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.8620767565562086</v>
+      </c>
+      <c r="D42">
+        <v>1.422350386467872</v>
+      </c>
+      <c r="E42">
+        <v>0.9512664603851346</v>
+      </c>
+      <c r="F42">
+        <v>1.422350386467872</v>
+      </c>
+      <c r="G42">
+        <v>0.9512664603851346</v>
+      </c>
+      <c r="H42">
+        <v>0.6352157589687129</v>
+      </c>
+      <c r="I42">
+        <v>1.249878117298487</v>
+      </c>
+      <c r="J42">
+        <v>0.8877702849237653</v>
+      </c>
+      <c r="K42">
+        <v>0.9512664603851346</v>
+      </c>
+      <c r="L42">
+        <v>0.8620767565562086</v>
+      </c>
+      <c r="M42">
+        <v>1.14221357151204</v>
+      </c>
+      <c r="N42">
+        <v>1.14221357151204</v>
+      </c>
+      <c r="O42">
+        <v>1.178101753440856</v>
+      </c>
+      <c r="P42">
+        <v>1.078564534469739</v>
+      </c>
+      <c r="Q42">
+        <v>1.078564534469739</v>
+      </c>
+      <c r="R42">
+        <v>1.046740015948588</v>
+      </c>
+      <c r="S42">
+        <v>1.046740015948588</v>
+      </c>
+      <c r="T42">
+        <v>1.00142629410003</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/ShearF-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW20.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,36 +85,36 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
@@ -89,9 +122,6 @@
   </si>
   <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9991364103915978</v>
+        <v>0.9984364582986048</v>
       </c>
       <c r="D3">
-        <v>1.038089840198896</v>
+        <v>1.007123634732989</v>
       </c>
       <c r="E3">
-        <v>0.9869327978028275</v>
+        <v>0.9985599813978137</v>
       </c>
       <c r="F3">
-        <v>0.9991364103915978</v>
+        <v>1.007123634732989</v>
       </c>
       <c r="G3">
-        <v>0.9718900980355997</v>
+        <v>0.9985599813978137</v>
       </c>
       <c r="H3">
-        <v>1.019559892995334</v>
+        <v>0.9972597759496106</v>
       </c>
       <c r="I3">
-        <v>0.990476881695434</v>
+        <v>1.002932359288543</v>
       </c>
       <c r="J3">
-        <v>1.038089840198896</v>
+        <v>0.9984672414543905</v>
       </c>
       <c r="K3">
-        <v>0.9991364103915978</v>
+        <v>0.9985599813978137</v>
       </c>
       <c r="L3">
-        <v>0.9869327978028275</v>
+        <v>0.9984364582986048</v>
       </c>
       <c r="M3">
-        <v>1.012511319000862</v>
+        <v>1.002780046515797</v>
       </c>
       <c r="N3">
-        <v>1.012511319000862</v>
+        <v>1.002780046515797</v>
       </c>
       <c r="O3">
-        <v>1.014860843665686</v>
+        <v>1.002830817440046</v>
       </c>
       <c r="P3">
-        <v>1.008053016131107</v>
+        <v>1.001373358143136</v>
       </c>
       <c r="Q3">
-        <v>1.008053016131107</v>
+        <v>1.001373358143136</v>
       </c>
       <c r="R3">
-        <v>1.00582386469623</v>
+        <v>1.000670013956805</v>
       </c>
       <c r="S3">
-        <v>1.00582386469623</v>
+        <v>1.000670013956805</v>
       </c>
       <c r="T3">
-        <v>1.001014320186615</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.000463241853659</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9979270591049408</v>
+        <v>0.9957856217843082</v>
       </c>
       <c r="D4">
-        <v>1.072908334261707</v>
+        <v>0.9017874889788284</v>
       </c>
       <c r="E4">
-        <v>0.9750761903524402</v>
+        <v>1.085026010233661</v>
       </c>
       <c r="F4">
-        <v>0.9979270591049408</v>
+        <v>0.9017874889788284</v>
       </c>
       <c r="G4">
-        <v>0.9455176546297438</v>
+        <v>1.085026010233661</v>
       </c>
       <c r="H4">
-        <v>1.037798343618565</v>
+        <v>0.9958204495288052</v>
       </c>
       <c r="I4">
-        <v>0.9817120679331135</v>
+        <v>0.9532010507387216</v>
       </c>
       <c r="J4">
-        <v>1.072908334261707</v>
+        <v>1.021543206145053</v>
       </c>
       <c r="K4">
-        <v>0.9979270591049408</v>
+        <v>1.085026010233661</v>
       </c>
       <c r="L4">
-        <v>0.9750761903524402</v>
+        <v>0.9957856217843082</v>
       </c>
       <c r="M4">
-        <v>1.023992262307073</v>
+        <v>0.9487865553815683</v>
       </c>
       <c r="N4">
-        <v>1.023992262307073</v>
+        <v>0.9487865553815683</v>
       </c>
       <c r="O4">
-        <v>1.028594289410904</v>
+        <v>0.9502580538339528</v>
       </c>
       <c r="P4">
-        <v>1.015303861239696</v>
+        <v>0.9941997069989327</v>
       </c>
       <c r="Q4">
-        <v>1.015303861239696</v>
+        <v>0.9941997069989327</v>
       </c>
       <c r="R4">
-        <v>1.010959660706007</v>
+        <v>1.016906282807615</v>
       </c>
       <c r="S4">
-        <v>1.010959660706007</v>
+        <v>1.016906282807615</v>
       </c>
       <c r="T4">
-        <v>1.001823274983418</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9921939712348963</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9957633754460354</v>
+        <v>0.9081823531628253</v>
       </c>
       <c r="D5">
-        <v>1.14142267861406</v>
+        <v>1.449339625583576</v>
       </c>
       <c r="E5">
-        <v>0.9520693070018922</v>
+        <v>0.8788915965778105</v>
       </c>
       <c r="F5">
-        <v>0.9957633754460354</v>
+        <v>1.449339625583576</v>
       </c>
       <c r="G5">
-        <v>0.8969245182126855</v>
+        <v>0.8788915965778105</v>
       </c>
       <c r="H5">
-        <v>1.072364737022095</v>
+        <v>0.8151365083638326</v>
       </c>
       <c r="I5">
-        <v>0.9647536229254553</v>
+        <v>1.201591782118154</v>
       </c>
       <c r="J5">
-        <v>1.14142267861406</v>
+        <v>0.8995313213832831</v>
       </c>
       <c r="K5">
-        <v>0.9957633754460354</v>
+        <v>0.8788915965778105</v>
       </c>
       <c r="L5">
-        <v>0.9520693070018922</v>
+        <v>0.9081823531628253</v>
       </c>
       <c r="M5">
-        <v>1.046745992807976</v>
+        <v>1.178760989373201</v>
       </c>
       <c r="N5">
-        <v>1.046745992807976</v>
+        <v>1.178760989373201</v>
       </c>
       <c r="O5">
-        <v>1.055285574212683</v>
+        <v>1.186371253621519</v>
       </c>
       <c r="P5">
-        <v>1.029751787020663</v>
+        <v>1.07880452510807</v>
       </c>
       <c r="Q5">
-        <v>1.029751787020663</v>
+        <v>1.07880452510807</v>
       </c>
       <c r="R5">
-        <v>1.021254684127006</v>
+        <v>1.028826292975505</v>
       </c>
       <c r="S5">
-        <v>1.021254684127006</v>
+        <v>1.028826292975505</v>
       </c>
       <c r="T5">
-        <v>1.003883039870371</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.025445531198247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9934754554787394</v>
+        <v>0.6868740243434884</v>
       </c>
       <c r="D6">
-        <v>1.208168654849316</v>
+        <v>2.656084637647103</v>
       </c>
       <c r="E6">
-        <v>0.9294331644839061</v>
+        <v>0.5568101562590696</v>
       </c>
       <c r="F6">
-        <v>0.9934754554787394</v>
+        <v>2.656084637647103</v>
       </c>
       <c r="G6">
-        <v>0.8503054743345732</v>
+        <v>0.5568101562590696</v>
       </c>
       <c r="H6">
-        <v>1.106363561317414</v>
+        <v>0.4484186583378973</v>
       </c>
       <c r="I6">
-        <v>0.9479821603137548</v>
+        <v>1.679307984522861</v>
       </c>
       <c r="J6">
-        <v>1.208168654849316</v>
+        <v>0.6483641325109282</v>
       </c>
       <c r="K6">
-        <v>0.9934754554787394</v>
+        <v>0.5568101562590696</v>
       </c>
       <c r="L6">
-        <v>0.9294331644839061</v>
+        <v>0.6868740243434884</v>
       </c>
       <c r="M6">
-        <v>1.068800909666611</v>
+        <v>1.671479330995296</v>
       </c>
       <c r="N6">
-        <v>1.068800909666611</v>
+        <v>1.671479330995296</v>
       </c>
       <c r="O6">
-        <v>1.081321793550212</v>
+        <v>1.674088882171151</v>
       </c>
       <c r="P6">
-        <v>1.043692424937321</v>
+        <v>1.299922939416554</v>
       </c>
       <c r="Q6">
-        <v>1.043692424937321</v>
+        <v>1.299922939416554</v>
       </c>
       <c r="R6">
-        <v>1.031138182572675</v>
+        <v>1.114144743627183</v>
       </c>
       <c r="S6">
-        <v>1.031138182572675</v>
+        <v>1.114144743627183</v>
       </c>
       <c r="T6">
-        <v>1.005954745129617</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.112643265603558</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.999289029576292</v>
+        <v>0.9869408235375077</v>
       </c>
       <c r="D7">
-        <v>1.003058643856976</v>
+        <v>1.03848699472462</v>
       </c>
       <c r="E7">
-        <v>0.9993716029204582</v>
+        <v>0.9985235759045246</v>
       </c>
       <c r="F7">
-        <v>0.999289029576292</v>
+        <v>1.03848699472462</v>
       </c>
       <c r="G7">
-        <v>0.9988733914290447</v>
+        <v>0.9985235759045246</v>
       </c>
       <c r="H7">
-        <v>1.001262800696823</v>
+        <v>0.9706543668790255</v>
       </c>
       <c r="I7">
-        <v>0.9993455179504575</v>
+        <v>1.020251874081768</v>
       </c>
       <c r="J7">
-        <v>1.003058643856976</v>
+        <v>0.9903031962845457</v>
       </c>
       <c r="K7">
-        <v>0.999289029576292</v>
+        <v>0.9985235759045246</v>
       </c>
       <c r="L7">
-        <v>0.9993716029204582</v>
+        <v>0.9869408235375077</v>
       </c>
       <c r="M7">
-        <v>1.001215123388717</v>
+        <v>1.012713909131064</v>
       </c>
       <c r="N7">
-        <v>1.001215123388717</v>
+        <v>1.012713909131064</v>
       </c>
       <c r="O7">
-        <v>1.001231015824753</v>
+        <v>1.015226564114632</v>
       </c>
       <c r="P7">
-        <v>1.000573092117909</v>
+        <v>1.007983798055551</v>
       </c>
       <c r="Q7">
-        <v>1.000573092117909</v>
+        <v>1.007983798055551</v>
       </c>
       <c r="R7">
-        <v>1.000252076482504</v>
+        <v>1.005618742517794</v>
       </c>
       <c r="S7">
-        <v>1.000252076482504</v>
+        <v>1.005618742517794</v>
       </c>
       <c r="T7">
-        <v>1.000200164405008</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>1.000860138568665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9985599813978132</v>
+        <v>0.9990378467909614</v>
       </c>
       <c r="D8">
-        <v>1.007123634732988</v>
+        <v>1.003866385975271</v>
       </c>
       <c r="E8">
-        <v>0.9984364582986049</v>
+        <v>0.9994037099562305</v>
       </c>
       <c r="F8">
-        <v>0.9985599813978132</v>
+        <v>1.003866385975271</v>
       </c>
       <c r="G8">
-        <v>0.9972597759496105</v>
+        <v>0.9994037099562305</v>
       </c>
       <c r="H8">
-        <v>1.002932359288542</v>
+        <v>0.9981248687760244</v>
       </c>
       <c r="I8">
-        <v>0.9984672414543903</v>
+        <v>1.001680976504458</v>
       </c>
       <c r="J8">
-        <v>1.007123634732988</v>
+        <v>0.9991457905094707</v>
       </c>
       <c r="K8">
-        <v>0.9985599813978132</v>
+        <v>0.9994037099562305</v>
       </c>
       <c r="L8">
-        <v>0.9984364582986049</v>
+        <v>0.9990378467909614</v>
       </c>
       <c r="M8">
-        <v>1.002780046515796</v>
+        <v>1.001452116383116</v>
       </c>
       <c r="N8">
-        <v>1.002780046515796</v>
+        <v>1.001452116383116</v>
       </c>
       <c r="O8">
-        <v>1.002830817440045</v>
+        <v>1.00152840309023</v>
       </c>
       <c r="P8">
-        <v>1.001373358143135</v>
+        <v>1.000769314240821</v>
       </c>
       <c r="Q8">
-        <v>1.001373358143135</v>
+        <v>1.000769314240821</v>
       </c>
       <c r="R8">
-        <v>1.000670013956805</v>
+        <v>1.000427913169673</v>
       </c>
       <c r="S8">
-        <v>1.000670013956805</v>
+        <v>1.000427913169673</v>
       </c>
       <c r="T8">
-        <v>1.000463241853658</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.000209929752069</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9984931627890197</v>
+        <v>0.9750761903524402</v>
       </c>
       <c r="D9">
-        <v>1.009096757409688</v>
+        <v>1.072908334261707</v>
       </c>
       <c r="E9">
-        <v>0.9978243796067214</v>
+        <v>0.9979270591049408</v>
       </c>
       <c r="F9">
-        <v>0.9984931627890197</v>
+        <v>1.072908334261707</v>
       </c>
       <c r="G9">
-        <v>0.995785973072802</v>
+        <v>0.9979270591049408</v>
       </c>
       <c r="H9">
-        <v>1.00388964321216</v>
+        <v>0.9455176546297438</v>
       </c>
       <c r="I9">
-        <v>0.9980091223870803</v>
+        <v>1.037798343618565</v>
       </c>
       <c r="J9">
-        <v>1.009096757409688</v>
+        <v>0.9817120679331135</v>
       </c>
       <c r="K9">
-        <v>0.9984931627890197</v>
+        <v>0.9979270591049408</v>
       </c>
       <c r="L9">
-        <v>0.9978243796067214</v>
+        <v>0.9750761903524402</v>
       </c>
       <c r="M9">
-        <v>1.003460568508205</v>
+        <v>1.023992262307073</v>
       </c>
       <c r="N9">
-        <v>1.003460568508205</v>
+        <v>1.023992262307073</v>
       </c>
       <c r="O9">
-        <v>1.003603593409523</v>
+        <v>1.028594289410904</v>
       </c>
       <c r="P9">
-        <v>1.00180476660181</v>
+        <v>1.015303861239696</v>
       </c>
       <c r="Q9">
-        <v>1.00180476660181</v>
+        <v>1.015303861239696</v>
       </c>
       <c r="R9">
-        <v>1.000976865648612</v>
+        <v>1.010959660706007</v>
       </c>
       <c r="S9">
-        <v>1.000976865648612</v>
+        <v>1.010959660706007</v>
       </c>
       <c r="T9">
-        <v>1.000516506412912</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>1.001823274983418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9960975976587585</v>
+        <v>0.6794186276487614</v>
       </c>
       <c r="D10">
-        <v>1.020587464322107</v>
+        <v>2.693244748941595</v>
       </c>
       <c r="E10">
-        <v>0.9953755878316889</v>
+        <v>0.5519497539580631</v>
       </c>
       <c r="F10">
-        <v>0.9960975976587585</v>
+        <v>2.693244748941595</v>
       </c>
       <c r="G10">
-        <v>0.9913892885686411</v>
+        <v>0.5519497539580631</v>
       </c>
       <c r="H10">
-        <v>1.00857968090095</v>
+        <v>0.4474831781199314</v>
       </c>
       <c r="I10">
-        <v>0.9955653405108831</v>
+        <v>1.688620914273127</v>
       </c>
       <c r="J10">
-        <v>1.020587464322107</v>
+        <v>0.6416531588629021</v>
       </c>
       <c r="K10">
-        <v>0.9960975976587585</v>
+        <v>0.5519497539580631</v>
       </c>
       <c r="L10">
-        <v>0.9953755878316889</v>
+        <v>0.6794186276487614</v>
       </c>
       <c r="M10">
-        <v>1.007981526076898</v>
+        <v>1.686331688295178</v>
       </c>
       <c r="N10">
-        <v>1.007981526076898</v>
+        <v>1.686331688295178</v>
       </c>
       <c r="O10">
-        <v>1.008180911018248</v>
+        <v>1.687094763621161</v>
       </c>
       <c r="P10">
-        <v>1.004020216604185</v>
+        <v>1.308204376849473</v>
       </c>
       <c r="Q10">
-        <v>1.004020216604185</v>
+        <v>1.308204376849473</v>
       </c>
       <c r="R10">
-        <v>1.002039561867828</v>
+        <v>1.119140721126621</v>
       </c>
       <c r="S10">
-        <v>1.002039561867828</v>
+        <v>1.119140721126621</v>
       </c>
       <c r="T10">
-        <v>1.001265826632171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.11706173030073</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9953408375611015</v>
+        <v>0.9551777475594478</v>
       </c>
       <c r="D11">
-        <v>1.031994023397914</v>
+        <v>0.9700286599781373</v>
       </c>
       <c r="E11">
-        <v>0.9920233156664652</v>
+        <v>1.106333785863047</v>
       </c>
       <c r="F11">
-        <v>0.9953408375611015</v>
+        <v>0.9700286599781373</v>
       </c>
       <c r="G11">
-        <v>0.9849601346802441</v>
+        <v>1.106333785863047</v>
       </c>
       <c r="H11">
-        <v>1.013662235334028</v>
+        <v>0.8597543354199119</v>
       </c>
       <c r="I11">
-        <v>0.9929508906447841</v>
+        <v>1.012703503913756</v>
       </c>
       <c r="J11">
-        <v>1.031994023397914</v>
+        <v>0.9988573581130877</v>
       </c>
       <c r="K11">
-        <v>0.9953408375611015</v>
+        <v>1.106333785863047</v>
       </c>
       <c r="L11">
-        <v>0.9920233156664652</v>
+        <v>0.9551777475594478</v>
       </c>
       <c r="M11">
-        <v>1.012008669532189</v>
+        <v>0.9626032037687926</v>
       </c>
       <c r="N11">
-        <v>1.012008669532189</v>
+        <v>0.9626032037687926</v>
       </c>
       <c r="O11">
-        <v>1.012559858132802</v>
+        <v>0.9793033038171138</v>
       </c>
       <c r="P11">
-        <v>1.006452725541827</v>
+        <v>1.010513397800211</v>
       </c>
       <c r="Q11">
-        <v>1.006452725541827</v>
+        <v>1.010513397800211</v>
       </c>
       <c r="R11">
-        <v>1.003674753546645</v>
+        <v>1.03446849481592</v>
       </c>
       <c r="S11">
-        <v>1.003674753546645</v>
+        <v>1.03446849481592</v>
       </c>
       <c r="T11">
-        <v>1.001821906214089</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.983809231807898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.383247727733637</v>
+        <v>0.9054629497578945</v>
       </c>
       <c r="D12">
-        <v>0.6474123980439753</v>
+        <v>1.504811564547371</v>
       </c>
       <c r="E12">
-        <v>0.9294315679662116</v>
+        <v>0.8597119242842107</v>
       </c>
       <c r="F12">
-        <v>1.383247727733637</v>
+        <v>1.504811564547371</v>
       </c>
       <c r="G12">
-        <v>0.7695134981280535</v>
+        <v>0.8597119242842107</v>
       </c>
       <c r="H12">
-        <v>0.8916722145036234</v>
+        <v>0.844779967521052</v>
       </c>
       <c r="I12">
-        <v>1.062021937385172</v>
+        <v>1.206733396063159</v>
       </c>
       <c r="J12">
-        <v>0.6474123980439753</v>
+        <v>0.8919659231999991</v>
       </c>
       <c r="K12">
-        <v>1.383247727733637</v>
+        <v>0.8597119242842107</v>
       </c>
       <c r="L12">
-        <v>0.9294315679662116</v>
+        <v>0.9054629497578945</v>
       </c>
       <c r="M12">
-        <v>0.7884219830050935</v>
+        <v>1.205137257152633</v>
       </c>
       <c r="N12">
-        <v>0.7884219830050935</v>
+        <v>1.205137257152633</v>
       </c>
       <c r="O12">
-        <v>0.8228387268379368</v>
+        <v>1.205669303456141</v>
       </c>
       <c r="P12">
-        <v>0.9866972312479415</v>
+        <v>1.089995479529825</v>
       </c>
       <c r="Q12">
-        <v>0.9866972312479413</v>
+        <v>1.089995479529825</v>
       </c>
       <c r="R12">
-        <v>1.085834855369365</v>
+        <v>1.032424590718422</v>
       </c>
       <c r="S12">
-        <v>1.085834855369365</v>
+        <v>1.032424590718422</v>
       </c>
       <c r="T12">
-        <v>0.9472165572934457</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.035577620895614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8574694106388464</v>
+        <v>1.051459653945521</v>
       </c>
       <c r="D13">
-        <v>1.013927747195857</v>
+        <v>0.7612610939260452</v>
       </c>
       <c r="E13">
-        <v>1.069688241736297</v>
+        <v>1.084925599298505</v>
       </c>
       <c r="F13">
-        <v>0.8574694106388464</v>
+        <v>0.7612610939260452</v>
       </c>
       <c r="G13">
-        <v>1.165039530280905</v>
+        <v>1.084925599298505</v>
       </c>
       <c r="H13">
-        <v>0.9798262988859499</v>
+        <v>1.168699781989065</v>
       </c>
       <c r="I13">
-        <v>1.007695936101689</v>
+        <v>0.857860371732878</v>
       </c>
       <c r="J13">
-        <v>1.013927747195857</v>
+        <v>1.061222540578913</v>
       </c>
       <c r="K13">
-        <v>0.8574694106388464</v>
+        <v>1.084925599298505</v>
       </c>
       <c r="L13">
-        <v>1.069688241736297</v>
+        <v>1.051459653945521</v>
       </c>
       <c r="M13">
-        <v>1.041807994466077</v>
+        <v>0.9063603739357831</v>
       </c>
       <c r="N13">
-        <v>1.041807994466077</v>
+        <v>0.9063603739357831</v>
       </c>
       <c r="O13">
-        <v>1.021147429272702</v>
+        <v>0.8901937065348147</v>
       </c>
       <c r="P13">
-        <v>0.9803617998570004</v>
+        <v>0.9658821157233571</v>
       </c>
       <c r="Q13">
-        <v>0.9803617998570003</v>
+        <v>0.9658821157233571</v>
       </c>
       <c r="R13">
-        <v>0.9496387025524619</v>
+        <v>0.9956429866171441</v>
       </c>
       <c r="S13">
-        <v>0.9496387025524619</v>
+        <v>0.9956429866171441</v>
       </c>
       <c r="T13">
-        <v>1.015607860806591</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>0.9975715069118212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9489468280812742</v>
+        <v>0.4490890699999996</v>
       </c>
       <c r="D14">
-        <v>0.6132311431620127</v>
+        <v>3.939353100000003</v>
       </c>
       <c r="E14">
-        <v>1.165048391102379</v>
+        <v>0.2188589699999998</v>
       </c>
       <c r="F14">
-        <v>0.9489468280812742</v>
+        <v>3.939353100000003</v>
       </c>
       <c r="G14">
-        <v>1.391676314260136</v>
+        <v>0.2188589699999998</v>
       </c>
       <c r="H14">
-        <v>0.7808622755914665</v>
+        <v>0.05435712199999995</v>
       </c>
       <c r="I14">
-        <v>1.102329925782838</v>
+        <v>2.187941700000001</v>
       </c>
       <c r="J14">
-        <v>0.6132311431620127</v>
+        <v>0.3808422</v>
       </c>
       <c r="K14">
-        <v>0.9489468280812742</v>
+        <v>0.2188589699999998</v>
       </c>
       <c r="L14">
-        <v>1.165048391102379</v>
+        <v>0.4490890699999996</v>
       </c>
       <c r="M14">
-        <v>0.8891397671321961</v>
+        <v>2.194221085000001</v>
       </c>
       <c r="N14">
-        <v>0.8891397671321961</v>
+        <v>2.194221085000001</v>
       </c>
       <c r="O14">
-        <v>0.8530472699519529</v>
+        <v>2.192127956666668</v>
       </c>
       <c r="P14">
-        <v>0.9090754541152221</v>
+        <v>1.535767046666668</v>
       </c>
       <c r="Q14">
-        <v>0.9090754541152221</v>
+        <v>1.535767046666668</v>
       </c>
       <c r="R14">
-        <v>0.9190432976067351</v>
+        <v>1.2065400275</v>
       </c>
       <c r="S14">
-        <v>0.9190432976067351</v>
+        <v>1.2065400275</v>
       </c>
       <c r="T14">
-        <v>1.000349146330018</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.205073693666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.114500948424145</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="D15">
-        <v>0.920854348411776</v>
+        <v>0.21885897</v>
       </c>
       <c r="E15">
-        <v>0.9797230111250644</v>
+        <v>1.9813918</v>
       </c>
       <c r="F15">
-        <v>1.114500948424145</v>
+        <v>0.21885897</v>
       </c>
       <c r="G15">
-        <v>1.044247981991259</v>
+        <v>1.9813918</v>
       </c>
       <c r="H15">
-        <v>0.9377645740754055</v>
+        <v>0.66920919</v>
       </c>
       <c r="I15">
-        <v>1.018930492568054</v>
+        <v>0.6454245799999999</v>
       </c>
       <c r="J15">
-        <v>0.920854348411776</v>
+        <v>1.1585466</v>
       </c>
       <c r="K15">
-        <v>1.114500948424145</v>
+        <v>1.9813918</v>
       </c>
       <c r="L15">
-        <v>0.9797230111250644</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="M15">
-        <v>0.9502886797684202</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="N15">
-        <v>0.9502886797684202</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="O15">
-        <v>0.9461139778707487</v>
+        <v>0.5644207333333333</v>
       </c>
       <c r="P15">
-        <v>1.005026102653662</v>
+        <v>1.00974314</v>
       </c>
       <c r="Q15">
-        <v>1.005026102653662</v>
+        <v>1.00974314</v>
       </c>
       <c r="R15">
-        <v>1.032394814096283</v>
+        <v>1.252655305</v>
       </c>
       <c r="S15">
-        <v>1.032394814096283</v>
+        <v>1.252655305</v>
       </c>
       <c r="T15">
-        <v>1.002670226099284</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9170682983333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9995371047943453</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="D16">
-        <v>1.000554248413922</v>
+        <v>0.21885897</v>
       </c>
       <c r="E16">
-        <v>1.000101656139853</v>
+        <v>1.9813918</v>
       </c>
       <c r="F16">
-        <v>0.9995371047943453</v>
+        <v>0.21885897</v>
       </c>
       <c r="G16">
-        <v>1.00040257213798</v>
+        <v>1.9813918</v>
       </c>
       <c r="H16">
-        <v>1.00006900548248</v>
+        <v>0.66920919</v>
       </c>
       <c r="I16">
-        <v>0.9999351658793619</v>
+        <v>0.6454245799999999</v>
       </c>
       <c r="J16">
-        <v>1.000554248413922</v>
+        <v>1.1585466</v>
       </c>
       <c r="K16">
-        <v>0.9995371047943453</v>
+        <v>1.9813918</v>
       </c>
       <c r="L16">
-        <v>1.000101656139853</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="M16">
-        <v>1.000327952276888</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="N16">
-        <v>1.000327952276888</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="O16">
-        <v>1.000241636678752</v>
+        <v>0.5644207333333333</v>
       </c>
       <c r="P16">
-        <v>1.000064336449374</v>
+        <v>1.00974314</v>
       </c>
       <c r="Q16">
-        <v>1.000064336449374</v>
+        <v>1.00974314</v>
       </c>
       <c r="R16">
-        <v>0.9999325285356165</v>
+        <v>1.252655305</v>
       </c>
       <c r="S16">
-        <v>0.9999325285356165</v>
+        <v>1.252655305</v>
       </c>
       <c r="T16">
-        <v>1.00009995880799</v>
+        <v>0.9170682983333333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9994037099562307</v>
+        <v>1.5132597</v>
       </c>
       <c r="D17">
-        <v>1.003866385975271</v>
+        <v>0.06559432699999999</v>
       </c>
       <c r="E17">
-        <v>0.9990378467909617</v>
+        <v>0.7162996800000001</v>
       </c>
       <c r="F17">
-        <v>0.9994037099562307</v>
+        <v>0.06559432699999999</v>
       </c>
       <c r="G17">
-        <v>0.9981248687760249</v>
+        <v>0.7162996800000001</v>
       </c>
       <c r="H17">
-        <v>1.001680976504458</v>
+        <v>2.818143399999999</v>
       </c>
       <c r="I17">
-        <v>0.9991457905094707</v>
+        <v>0.24865233</v>
       </c>
       <c r="J17">
-        <v>1.003866385975271</v>
+        <v>1.2778388</v>
       </c>
       <c r="K17">
-        <v>0.9994037099562307</v>
+        <v>0.7162996800000001</v>
       </c>
       <c r="L17">
-        <v>0.9990378467909617</v>
+        <v>1.5132597</v>
       </c>
       <c r="M17">
-        <v>1.001452116383116</v>
+        <v>0.7894270135</v>
       </c>
       <c r="N17">
-        <v>1.001452116383116</v>
+        <v>0.7894270135</v>
       </c>
       <c r="O17">
-        <v>1.00152840309023</v>
+        <v>0.6091687856666667</v>
       </c>
       <c r="P17">
-        <v>1.000769314240821</v>
+        <v>0.7650512356666667</v>
       </c>
       <c r="Q17">
-        <v>1.000769314240821</v>
+        <v>0.7650512356666668</v>
       </c>
       <c r="R17">
-        <v>1.000427913169674</v>
+        <v>0.7528633467500001</v>
       </c>
       <c r="S17">
-        <v>1.000427913169674</v>
+        <v>0.7528633467500001</v>
       </c>
       <c r="T17">
-        <v>1.00020992975207</v>
+        <v>1.106631372833333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9990067740253633</v>
+        <v>0.701076531643836</v>
       </c>
       <c r="D18">
-        <v>1.011583463775027</v>
+        <v>1.835997022054794</v>
       </c>
       <c r="E18">
-        <v>0.9963371805324617</v>
+        <v>0.9995425063013701</v>
       </c>
       <c r="F18">
-        <v>0.9990067740253633</v>
+        <v>1.835997022054794</v>
       </c>
       <c r="G18">
-        <v>0.9917376872546708</v>
+        <v>0.9995425063013701</v>
       </c>
       <c r="H18">
-        <v>1.006047405935547</v>
+        <v>0.337895131150685</v>
       </c>
       <c r="I18">
-        <v>0.997094748882918</v>
+        <v>1.441133253972603</v>
       </c>
       <c r="J18">
-        <v>1.011583463775027</v>
+        <v>0.7877548367123287</v>
       </c>
       <c r="K18">
-        <v>0.9990067740253633</v>
+        <v>0.9995425063013701</v>
       </c>
       <c r="L18">
-        <v>0.9963371805324617</v>
+        <v>0.701076531643836</v>
       </c>
       <c r="M18">
-        <v>1.003960322153745</v>
+        <v>1.268536776849315</v>
       </c>
       <c r="N18">
-        <v>1.003960322153745</v>
+        <v>1.268536776849315</v>
       </c>
       <c r="O18">
-        <v>1.004656016747679</v>
+        <v>1.326068935890411</v>
       </c>
       <c r="P18">
-        <v>1.002309139444284</v>
+        <v>1.17887202</v>
       </c>
       <c r="Q18">
-        <v>1.002309139444284</v>
+        <v>1.17887202</v>
       </c>
       <c r="R18">
-        <v>1.001483548089554</v>
+        <v>1.134039641575343</v>
       </c>
       <c r="S18">
-        <v>1.001483548089554</v>
+        <v>1.134039641575343</v>
       </c>
       <c r="T18">
-        <v>1.000301210067665</v>
+        <v>1.017233213639269</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9994304533407604</v>
+        <v>1.075012418947368</v>
       </c>
       <c r="D19">
-        <v>1.026857965924356</v>
+        <v>1.043442563052632</v>
       </c>
       <c r="E19">
-        <v>0.9906740079393591</v>
+        <v>0.8787117957894734</v>
       </c>
       <c r="F19">
-        <v>0.9994304533407604</v>
+        <v>1.043442563052632</v>
       </c>
       <c r="G19">
-        <v>0.9792673669471219</v>
+        <v>0.8787117957894734</v>
       </c>
       <c r="H19">
-        <v>1.014118546528313</v>
+        <v>1.346592761</v>
       </c>
       <c r="I19">
-        <v>0.9932076470964663</v>
+        <v>0.9135578252631579</v>
       </c>
       <c r="J19">
-        <v>1.026857965924356</v>
+        <v>1.016213122105263</v>
       </c>
       <c r="K19">
-        <v>0.9994304533407604</v>
+        <v>0.8787117957894734</v>
       </c>
       <c r="L19">
-        <v>0.9906740079393591</v>
+        <v>1.075012418947368</v>
       </c>
       <c r="M19">
-        <v>1.008765986931857</v>
+        <v>1.059227491</v>
       </c>
       <c r="N19">
-        <v>1.008765986931857</v>
+        <v>1.059227491</v>
       </c>
       <c r="O19">
-        <v>1.010550173464009</v>
+        <v>1.010670935754386</v>
       </c>
       <c r="P19">
-        <v>1.005654142401492</v>
+        <v>0.9990555925964912</v>
       </c>
       <c r="Q19">
-        <v>1.005654142401492</v>
+        <v>0.9990555925964912</v>
       </c>
       <c r="R19">
-        <v>1.004098220136309</v>
+        <v>0.9689696433947368</v>
       </c>
       <c r="S19">
-        <v>1.004098220136309</v>
+        <v>0.9689696433947368</v>
       </c>
       <c r="T19">
-        <v>1.000592664629396</v>
+        <v>1.045588414359649</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.075012418947368</v>
+      </c>
+      <c r="D20">
+        <v>1.043442563052632</v>
+      </c>
+      <c r="E20">
+        <v>0.8787117957894734</v>
+      </c>
+      <c r="F20">
+        <v>1.043442563052632</v>
+      </c>
+      <c r="G20">
+        <v>0.8787117957894734</v>
+      </c>
+      <c r="H20">
+        <v>1.346592761</v>
+      </c>
+      <c r="I20">
+        <v>0.9135578252631579</v>
+      </c>
+      <c r="J20">
+        <v>1.016213122105263</v>
+      </c>
+      <c r="K20">
+        <v>0.8787117957894734</v>
+      </c>
+      <c r="L20">
+        <v>1.075012418947368</v>
+      </c>
+      <c r="M20">
+        <v>1.059227491</v>
+      </c>
+      <c r="N20">
+        <v>1.059227491</v>
+      </c>
+      <c r="O20">
+        <v>1.010670935754386</v>
+      </c>
+      <c r="P20">
+        <v>0.9990555925964912</v>
+      </c>
+      <c r="Q20">
+        <v>0.9990555925964912</v>
+      </c>
+      <c r="R20">
+        <v>0.9689696433947368</v>
+      </c>
+      <c r="S20">
+        <v>0.9689696433947368</v>
+      </c>
+      <c r="T20">
+        <v>1.045588414359649</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.165048391102379</v>
+      </c>
+      <c r="D21">
+        <v>0.6132311431620125</v>
+      </c>
+      <c r="E21">
+        <v>0.9489468280812742</v>
+      </c>
+      <c r="F21">
+        <v>0.6132311431620125</v>
+      </c>
+      <c r="G21">
+        <v>0.9489468280812742</v>
+      </c>
+      <c r="H21">
+        <v>1.391676314260136</v>
+      </c>
+      <c r="I21">
+        <v>0.7808622755914665</v>
+      </c>
+      <c r="J21">
+        <v>1.102329925782838</v>
+      </c>
+      <c r="K21">
+        <v>0.9489468280812742</v>
+      </c>
+      <c r="L21">
+        <v>1.165048391102379</v>
+      </c>
+      <c r="M21">
+        <v>0.889139767132196</v>
+      </c>
+      <c r="N21">
+        <v>0.889139767132196</v>
+      </c>
+      <c r="O21">
+        <v>0.8530472699519528</v>
+      </c>
+      <c r="P21">
+        <v>0.9090754541152221</v>
+      </c>
+      <c r="Q21">
+        <v>0.9090754541152221</v>
+      </c>
+      <c r="R21">
+        <v>0.9190432976067351</v>
+      </c>
+      <c r="S21">
+        <v>0.9190432976067351</v>
+      </c>
+      <c r="T21">
+        <v>1.000349146330018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9797230111250644</v>
+      </c>
+      <c r="D22">
+        <v>0.920854348411776</v>
+      </c>
+      <c r="E22">
+        <v>1.114500948424145</v>
+      </c>
+      <c r="F22">
+        <v>0.920854348411776</v>
+      </c>
+      <c r="G22">
+        <v>1.114500948424145</v>
+      </c>
+      <c r="H22">
+        <v>1.044247981991259</v>
+      </c>
+      <c r="I22">
+        <v>0.9377645740754055</v>
+      </c>
+      <c r="J22">
+        <v>1.018930492568054</v>
+      </c>
+      <c r="K22">
+        <v>1.114500948424145</v>
+      </c>
+      <c r="L22">
+        <v>0.9797230111250644</v>
+      </c>
+      <c r="M22">
+        <v>0.9502886797684202</v>
+      </c>
+      <c r="N22">
+        <v>0.9502886797684202</v>
+      </c>
+      <c r="O22">
+        <v>0.9461139778707487</v>
+      </c>
+      <c r="P22">
+        <v>1.005026102653662</v>
+      </c>
+      <c r="Q22">
+        <v>1.005026102653662</v>
+      </c>
+      <c r="R22">
+        <v>1.032394814096283</v>
+      </c>
+      <c r="S22">
+        <v>1.032394814096283</v>
+      </c>
+      <c r="T22">
+        <v>1.002670226099284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9294315679662116</v>
+      </c>
+      <c r="D23">
+        <v>0.6474123980439751</v>
+      </c>
+      <c r="E23">
+        <v>1.383247727733637</v>
+      </c>
+      <c r="F23">
+        <v>0.6474123980439751</v>
+      </c>
+      <c r="G23">
+        <v>1.383247727733637</v>
+      </c>
+      <c r="H23">
+        <v>0.7695134981280535</v>
+      </c>
+      <c r="I23">
+        <v>0.8916722145036236</v>
+      </c>
+      <c r="J23">
+        <v>1.062021937385172</v>
+      </c>
+      <c r="K23">
+        <v>1.383247727733637</v>
+      </c>
+      <c r="L23">
+        <v>0.9294315679662116</v>
+      </c>
+      <c r="M23">
+        <v>0.7884219830050934</v>
+      </c>
+      <c r="N23">
+        <v>0.7884219830050934</v>
+      </c>
+      <c r="O23">
+        <v>0.8228387268379368</v>
+      </c>
+      <c r="P23">
+        <v>0.9866972312479413</v>
+      </c>
+      <c r="Q23">
+        <v>0.9866972312479413</v>
+      </c>
+      <c r="R23">
+        <v>1.085834855369365</v>
+      </c>
+      <c r="S23">
+        <v>1.085834855369365</v>
+      </c>
+      <c r="T23">
+        <v>0.9472165572934456</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.069688241736297</v>
+      </c>
+      <c r="D24">
+        <v>1.013927747195857</v>
+      </c>
+      <c r="E24">
+        <v>0.8574694106388464</v>
+      </c>
+      <c r="F24">
+        <v>1.013927747195857</v>
+      </c>
+      <c r="G24">
+        <v>0.8574694106388464</v>
+      </c>
+      <c r="H24">
+        <v>1.165039530280905</v>
+      </c>
+      <c r="I24">
+        <v>0.9798262988859499</v>
+      </c>
+      <c r="J24">
+        <v>1.007695936101689</v>
+      </c>
+      <c r="K24">
+        <v>0.8574694106388464</v>
+      </c>
+      <c r="L24">
+        <v>1.069688241736297</v>
+      </c>
+      <c r="M24">
+        <v>1.041807994466077</v>
+      </c>
+      <c r="N24">
+        <v>1.041807994466077</v>
+      </c>
+      <c r="O24">
+        <v>1.021147429272701</v>
+      </c>
+      <c r="P24">
+        <v>0.9803617998570003</v>
+      </c>
+      <c r="Q24">
+        <v>0.9803617998570003</v>
+      </c>
+      <c r="R24">
+        <v>0.9496387025524619</v>
+      </c>
+      <c r="S24">
+        <v>0.9496387025524619</v>
+      </c>
+      <c r="T24">
+        <v>1.015607860806591</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.16504839110238</v>
+      </c>
+      <c r="D25">
+        <v>0.6132311431620125</v>
+      </c>
+      <c r="E25">
+        <v>0.9489468280812741</v>
+      </c>
+      <c r="F25">
+        <v>0.6132311431620125</v>
+      </c>
+      <c r="G25">
+        <v>0.9489468280812741</v>
+      </c>
+      <c r="H25">
+        <v>1.391676314260136</v>
+      </c>
+      <c r="I25">
+        <v>0.7808622755914664</v>
+      </c>
+      <c r="J25">
+        <v>1.102329925782838</v>
+      </c>
+      <c r="K25">
+        <v>0.9489468280812741</v>
+      </c>
+      <c r="L25">
+        <v>1.16504839110238</v>
+      </c>
+      <c r="M25">
+        <v>0.8891397671321962</v>
+      </c>
+      <c r="N25">
+        <v>0.8891397671321962</v>
+      </c>
+      <c r="O25">
+        <v>0.8530472699519529</v>
+      </c>
+      <c r="P25">
+        <v>0.9090754541152221</v>
+      </c>
+      <c r="Q25">
+        <v>0.9090754541152221</v>
+      </c>
+      <c r="R25">
+        <v>0.9190432976067351</v>
+      </c>
+      <c r="S25">
+        <v>0.9190432976067351</v>
+      </c>
+      <c r="T25">
+        <v>1.000349146330018</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9797230111250643</v>
+      </c>
+      <c r="D26">
+        <v>0.9208543484117762</v>
+      </c>
+      <c r="E26">
+        <v>1.114500948424145</v>
+      </c>
+      <c r="F26">
+        <v>0.9208543484117762</v>
+      </c>
+      <c r="G26">
+        <v>1.114500948424145</v>
+      </c>
+      <c r="H26">
+        <v>1.044247981991259</v>
+      </c>
+      <c r="I26">
+        <v>0.9377645740754056</v>
+      </c>
+      <c r="J26">
+        <v>1.018930492568054</v>
+      </c>
+      <c r="K26">
+        <v>1.114500948424145</v>
+      </c>
+      <c r="L26">
+        <v>0.9797230111250643</v>
+      </c>
+      <c r="M26">
+        <v>0.9502886797684202</v>
+      </c>
+      <c r="N26">
+        <v>0.9502886797684202</v>
+      </c>
+      <c r="O26">
+        <v>0.9461139778707487</v>
+      </c>
+      <c r="P26">
+        <v>1.005026102653662</v>
+      </c>
+      <c r="Q26">
+        <v>1.005026102653662</v>
+      </c>
+      <c r="R26">
+        <v>1.032394814096283</v>
+      </c>
+      <c r="S26">
+        <v>1.032394814096283</v>
+      </c>
+      <c r="T26">
+        <v>1.002670226099284</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9721315662460447</v>
+      </c>
+      <c r="D27">
+        <v>1.097862878032881</v>
+      </c>
+      <c r="E27">
+        <v>0.9594025300772112</v>
+      </c>
+      <c r="F27">
+        <v>1.097862878032881</v>
+      </c>
+      <c r="G27">
+        <v>0.9594025300772112</v>
+      </c>
+      <c r="H27">
+        <v>0.8953943628454462</v>
+      </c>
+      <c r="I27">
+        <v>1.07810834417008</v>
+      </c>
+      <c r="J27">
+        <v>0.9695229094613148</v>
+      </c>
+      <c r="K27">
+        <v>0.9594025300772112</v>
+      </c>
+      <c r="L27">
+        <v>0.9721315662460447</v>
+      </c>
+      <c r="M27">
+        <v>1.034997222139463</v>
+      </c>
+      <c r="N27">
+        <v>1.034997222139463</v>
+      </c>
+      <c r="O27">
+        <v>1.049367596149668</v>
+      </c>
+      <c r="P27">
+        <v>1.009798991452046</v>
+      </c>
+      <c r="Q27">
+        <v>1.009798991452046</v>
+      </c>
+      <c r="R27">
+        <v>0.997199876108337</v>
+      </c>
+      <c r="S27">
+        <v>0.997199876108337</v>
+      </c>
+      <c r="T27">
+        <v>0.9954037651388296</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.035682238279795</v>
+      </c>
+      <c r="D28">
+        <v>0.9243771193540303</v>
+      </c>
+      <c r="E28">
+        <v>0.9846569239672783</v>
+      </c>
+      <c r="F28">
+        <v>0.9243771193540303</v>
+      </c>
+      <c r="G28">
+        <v>0.9846569239672783</v>
+      </c>
+      <c r="H28">
+        <v>1.138647962157371</v>
+      </c>
+      <c r="I28">
+        <v>0.9432587725932176</v>
+      </c>
+      <c r="J28">
+        <v>1.020282325744046</v>
+      </c>
+      <c r="K28">
+        <v>0.9846569239672783</v>
+      </c>
+      <c r="L28">
+        <v>1.035682238279795</v>
+      </c>
+      <c r="M28">
+        <v>0.9800296788169125</v>
+      </c>
+      <c r="N28">
+        <v>0.9800296788169125</v>
+      </c>
+      <c r="O28">
+        <v>0.9677727100756809</v>
+      </c>
+      <c r="P28">
+        <v>0.9815720938670345</v>
+      </c>
+      <c r="Q28">
+        <v>0.9815720938670344</v>
+      </c>
+      <c r="R28">
+        <v>0.9823433013920954</v>
+      </c>
+      <c r="S28">
+        <v>0.9823433013920954</v>
+      </c>
+      <c r="T28">
+        <v>1.007817557015956</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.165079981003884</v>
+      </c>
+      <c r="D29">
+        <v>0.4917599565662167</v>
+      </c>
+      <c r="E29">
+        <v>1.031965525543072</v>
+      </c>
+      <c r="F29">
+        <v>0.4917599565662167</v>
+      </c>
+      <c r="G29">
+        <v>1.031965525543072</v>
+      </c>
+      <c r="H29">
+        <v>1.429449040003286</v>
+      </c>
+      <c r="I29">
+        <v>0.724330185425365</v>
+      </c>
+      <c r="J29">
+        <v>1.125135702788174</v>
+      </c>
+      <c r="K29">
+        <v>1.031965525543072</v>
+      </c>
+      <c r="L29">
+        <v>1.165079981003884</v>
+      </c>
+      <c r="M29">
+        <v>0.8284199687850504</v>
+      </c>
+      <c r="N29">
+        <v>0.8284199687850504</v>
+      </c>
+      <c r="O29">
+        <v>0.7937233743318219</v>
+      </c>
+      <c r="P29">
+        <v>0.896268487704391</v>
+      </c>
+      <c r="Q29">
+        <v>0.896268487704391</v>
+      </c>
+      <c r="R29">
+        <v>0.9301927471640613</v>
+      </c>
+      <c r="S29">
+        <v>0.9301927471640613</v>
+      </c>
+      <c r="T29">
+        <v>0.9946200652216662</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/ShearF-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9957856217843082</v>
+        <v>0.9228545015898802</v>
       </c>
       <c r="D4">
-        <v>0.9017874889788284</v>
+        <v>1.386215645924811</v>
       </c>
       <c r="E4">
-        <v>1.085026010233661</v>
+        <v>0.889316700598519</v>
       </c>
       <c r="F4">
-        <v>0.9017874889788284</v>
+        <v>1.386215645924811</v>
       </c>
       <c r="G4">
-        <v>1.085026010233661</v>
+        <v>0.889316700598519</v>
       </c>
       <c r="H4">
-        <v>0.9958204495288052</v>
+        <v>0.8393583130099534</v>
       </c>
       <c r="I4">
-        <v>0.9532010507387216</v>
+        <v>1.176319683174596</v>
       </c>
       <c r="J4">
-        <v>1.021543206145053</v>
+        <v>0.9130295872900184</v>
       </c>
       <c r="K4">
-        <v>1.085026010233661</v>
+        <v>0.889316700598519</v>
       </c>
       <c r="L4">
-        <v>0.9957856217843082</v>
+        <v>0.9228545015898802</v>
       </c>
       <c r="M4">
-        <v>0.9487865553815683</v>
+        <v>1.154535073757346</v>
       </c>
       <c r="N4">
-        <v>0.9487865553815683</v>
+        <v>1.154535073757346</v>
       </c>
       <c r="O4">
-        <v>0.9502580538339528</v>
+        <v>1.161796610229763</v>
       </c>
       <c r="P4">
-        <v>0.9941997069989327</v>
+        <v>1.06612894937107</v>
       </c>
       <c r="Q4">
-        <v>0.9941997069989327</v>
+        <v>1.06612894937107</v>
       </c>
       <c r="R4">
-        <v>1.016906282807615</v>
+        <v>1.021925887177932</v>
       </c>
       <c r="S4">
-        <v>1.016906282807615</v>
+        <v>1.021925887177932</v>
       </c>
       <c r="T4">
-        <v>0.9921939712348963</v>
+        <v>1.02118240526463</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9081823531628253</v>
+        <v>1.130982459192274</v>
       </c>
       <c r="D5">
-        <v>1.449339625583576</v>
+        <v>0.8344367663395904</v>
       </c>
       <c r="E5">
-        <v>0.8788915965778105</v>
+        <v>0.9041808864503452</v>
       </c>
       <c r="F5">
-        <v>1.449339625583576</v>
+        <v>0.8344367663395904</v>
       </c>
       <c r="G5">
-        <v>0.8788915965778105</v>
+        <v>0.9041808864503452</v>
       </c>
       <c r="H5">
-        <v>0.8151365083638326</v>
+        <v>1.467925981547674</v>
       </c>
       <c r="I5">
-        <v>1.201591782118154</v>
+        <v>0.8180078256798523</v>
       </c>
       <c r="J5">
-        <v>0.8995313213832831</v>
+        <v>1.063368821033031</v>
       </c>
       <c r="K5">
-        <v>0.8788915965778105</v>
+        <v>0.9041808864503452</v>
       </c>
       <c r="L5">
-        <v>0.9081823531628253</v>
+        <v>1.130982459192274</v>
       </c>
       <c r="M5">
-        <v>1.178760989373201</v>
+        <v>0.9827096127659322</v>
       </c>
       <c r="N5">
-        <v>1.178760989373201</v>
+        <v>0.9827096127659322</v>
       </c>
       <c r="O5">
-        <v>1.186371253621519</v>
+        <v>0.9278090170705723</v>
       </c>
       <c r="P5">
-        <v>1.07880452510807</v>
+        <v>0.9565333706607365</v>
       </c>
       <c r="Q5">
-        <v>1.07880452510807</v>
+        <v>0.9565333706607365</v>
       </c>
       <c r="R5">
-        <v>1.028826292975505</v>
+        <v>0.9434452496081387</v>
       </c>
       <c r="S5">
-        <v>1.028826292975505</v>
+        <v>0.9434452496081387</v>
       </c>
       <c r="T5">
-        <v>1.025445531198247</v>
+        <v>1.036483790040461</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.6868740243434884</v>
+        <v>0.9957856217843082</v>
       </c>
       <c r="D6">
-        <v>2.656084637647103</v>
+        <v>0.9017874889788284</v>
       </c>
       <c r="E6">
-        <v>0.5568101562590696</v>
+        <v>1.085026010233661</v>
       </c>
       <c r="F6">
-        <v>2.656084637647103</v>
+        <v>0.9017874889788284</v>
       </c>
       <c r="G6">
-        <v>0.5568101562590696</v>
+        <v>1.085026010233661</v>
       </c>
       <c r="H6">
-        <v>0.4484186583378973</v>
+        <v>0.9958204495288052</v>
       </c>
       <c r="I6">
-        <v>1.679307984522861</v>
+        <v>0.9532010507387216</v>
       </c>
       <c r="J6">
-        <v>0.6483641325109282</v>
+        <v>1.021543206145053</v>
       </c>
       <c r="K6">
-        <v>0.5568101562590696</v>
+        <v>1.085026010233661</v>
       </c>
       <c r="L6">
-        <v>0.6868740243434884</v>
+        <v>0.9957856217843082</v>
       </c>
       <c r="M6">
-        <v>1.671479330995296</v>
+        <v>0.9487865553815683</v>
       </c>
       <c r="N6">
-        <v>1.671479330995296</v>
+        <v>0.9487865553815683</v>
       </c>
       <c r="O6">
-        <v>1.674088882171151</v>
+        <v>0.9502580538339528</v>
       </c>
       <c r="P6">
-        <v>1.299922939416554</v>
+        <v>0.9941997069989327</v>
       </c>
       <c r="Q6">
-        <v>1.299922939416554</v>
+        <v>0.9941997069989327</v>
       </c>
       <c r="R6">
-        <v>1.114144743627183</v>
+        <v>1.016906282807615</v>
       </c>
       <c r="S6">
-        <v>1.114144743627183</v>
+        <v>1.016906282807615</v>
       </c>
       <c r="T6">
-        <v>1.112643265603558</v>
+        <v>0.9921939712348963</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9869408235375077</v>
+        <v>0.9081823531628253</v>
       </c>
       <c r="D7">
-        <v>1.03848699472462</v>
+        <v>1.449339625583576</v>
       </c>
       <c r="E7">
-        <v>0.9985235759045246</v>
+        <v>0.8788915965778105</v>
       </c>
       <c r="F7">
-        <v>1.03848699472462</v>
+        <v>1.449339625583576</v>
       </c>
       <c r="G7">
-        <v>0.9985235759045246</v>
+        <v>0.8788915965778105</v>
       </c>
       <c r="H7">
-        <v>0.9706543668790255</v>
+        <v>0.8151365083638326</v>
       </c>
       <c r="I7">
-        <v>1.020251874081768</v>
+        <v>1.201591782118154</v>
       </c>
       <c r="J7">
-        <v>0.9903031962845457</v>
+        <v>0.8995313213832831</v>
       </c>
       <c r="K7">
-        <v>0.9985235759045246</v>
+        <v>0.8788915965778105</v>
       </c>
       <c r="L7">
-        <v>0.9869408235375077</v>
+        <v>0.9081823531628253</v>
       </c>
       <c r="M7">
-        <v>1.012713909131064</v>
+        <v>1.178760989373201</v>
       </c>
       <c r="N7">
-        <v>1.012713909131064</v>
+        <v>1.178760989373201</v>
       </c>
       <c r="O7">
-        <v>1.015226564114632</v>
+        <v>1.186371253621519</v>
       </c>
       <c r="P7">
-        <v>1.007983798055551</v>
+        <v>1.07880452510807</v>
       </c>
       <c r="Q7">
-        <v>1.007983798055551</v>
+        <v>1.07880452510807</v>
       </c>
       <c r="R7">
-        <v>1.005618742517794</v>
+        <v>1.028826292975505</v>
       </c>
       <c r="S7">
-        <v>1.005618742517794</v>
+        <v>1.028826292975505</v>
       </c>
       <c r="T7">
-        <v>1.000860138568665</v>
+        <v>1.025445531198247</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9990378467909614</v>
+        <v>0.6868740243434884</v>
       </c>
       <c r="D8">
-        <v>1.003866385975271</v>
+        <v>2.656084637647103</v>
       </c>
       <c r="E8">
-        <v>0.9994037099562305</v>
+        <v>0.5568101562590696</v>
       </c>
       <c r="F8">
-        <v>1.003866385975271</v>
+        <v>2.656084637647103</v>
       </c>
       <c r="G8">
-        <v>0.9994037099562305</v>
+        <v>0.5568101562590696</v>
       </c>
       <c r="H8">
-        <v>0.9981248687760244</v>
+        <v>0.4484186583378973</v>
       </c>
       <c r="I8">
-        <v>1.001680976504458</v>
+        <v>1.679307984522861</v>
       </c>
       <c r="J8">
-        <v>0.9991457905094707</v>
+        <v>0.6483641325109282</v>
       </c>
       <c r="K8">
-        <v>0.9994037099562305</v>
+        <v>0.5568101562590696</v>
       </c>
       <c r="L8">
-        <v>0.9990378467909614</v>
+        <v>0.6868740243434884</v>
       </c>
       <c r="M8">
-        <v>1.001452116383116</v>
+        <v>1.671479330995296</v>
       </c>
       <c r="N8">
-        <v>1.001452116383116</v>
+        <v>1.671479330995296</v>
       </c>
       <c r="O8">
-        <v>1.00152840309023</v>
+        <v>1.674088882171151</v>
       </c>
       <c r="P8">
-        <v>1.000769314240821</v>
+        <v>1.299922939416554</v>
       </c>
       <c r="Q8">
-        <v>1.000769314240821</v>
+        <v>1.299922939416554</v>
       </c>
       <c r="R8">
-        <v>1.000427913169673</v>
+        <v>1.114144743627183</v>
       </c>
       <c r="S8">
-        <v>1.000427913169673</v>
+        <v>1.114144743627183</v>
       </c>
       <c r="T8">
-        <v>1.000209929752069</v>
+        <v>1.112643265603558</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9750761903524402</v>
+        <v>0.9869408235375077</v>
       </c>
       <c r="D9">
-        <v>1.072908334261707</v>
+        <v>1.03848699472462</v>
       </c>
       <c r="E9">
-        <v>0.9979270591049408</v>
+        <v>0.9985235759045246</v>
       </c>
       <c r="F9">
-        <v>1.072908334261707</v>
+        <v>1.03848699472462</v>
       </c>
       <c r="G9">
-        <v>0.9979270591049408</v>
+        <v>0.9985235759045246</v>
       </c>
       <c r="H9">
-        <v>0.9455176546297438</v>
+        <v>0.9706543668790255</v>
       </c>
       <c r="I9">
-        <v>1.037798343618565</v>
+        <v>1.020251874081768</v>
       </c>
       <c r="J9">
-        <v>0.9817120679331135</v>
+        <v>0.9903031962845457</v>
       </c>
       <c r="K9">
-        <v>0.9979270591049408</v>
+        <v>0.9985235759045246</v>
       </c>
       <c r="L9">
-        <v>0.9750761903524402</v>
+        <v>0.9869408235375077</v>
       </c>
       <c r="M9">
-        <v>1.023992262307073</v>
+        <v>1.012713909131064</v>
       </c>
       <c r="N9">
-        <v>1.023992262307073</v>
+        <v>1.012713909131064</v>
       </c>
       <c r="O9">
-        <v>1.028594289410904</v>
+        <v>1.015226564114632</v>
       </c>
       <c r="P9">
-        <v>1.015303861239696</v>
+        <v>1.007983798055551</v>
       </c>
       <c r="Q9">
-        <v>1.015303861239696</v>
+        <v>1.007983798055551</v>
       </c>
       <c r="R9">
-        <v>1.010959660706007</v>
+        <v>1.005618742517794</v>
       </c>
       <c r="S9">
-        <v>1.010959660706007</v>
+        <v>1.005618742517794</v>
       </c>
       <c r="T9">
-        <v>1.001823274983418</v>
+        <v>1.000860138568665</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.6794186276487614</v>
+        <v>0.9990378467909614</v>
       </c>
       <c r="D10">
-        <v>2.693244748941595</v>
+        <v>1.003866385975271</v>
       </c>
       <c r="E10">
-        <v>0.5519497539580631</v>
+        <v>0.9994037099562305</v>
       </c>
       <c r="F10">
-        <v>2.693244748941595</v>
+        <v>1.003866385975271</v>
       </c>
       <c r="G10">
-        <v>0.5519497539580631</v>
+        <v>0.9994037099562305</v>
       </c>
       <c r="H10">
-        <v>0.4474831781199314</v>
+        <v>0.9981248687760244</v>
       </c>
       <c r="I10">
-        <v>1.688620914273127</v>
+        <v>1.001680976504458</v>
       </c>
       <c r="J10">
-        <v>0.6416531588629021</v>
+        <v>0.9991457905094707</v>
       </c>
       <c r="K10">
-        <v>0.5519497539580631</v>
+        <v>0.9994037099562305</v>
       </c>
       <c r="L10">
-        <v>0.6794186276487614</v>
+        <v>0.9990378467909614</v>
       </c>
       <c r="M10">
-        <v>1.686331688295178</v>
+        <v>1.001452116383116</v>
       </c>
       <c r="N10">
-        <v>1.686331688295178</v>
+        <v>1.001452116383116</v>
       </c>
       <c r="O10">
-        <v>1.687094763621161</v>
+        <v>1.00152840309023</v>
       </c>
       <c r="P10">
-        <v>1.308204376849473</v>
+        <v>1.000769314240821</v>
       </c>
       <c r="Q10">
-        <v>1.308204376849473</v>
+        <v>1.000769314240821</v>
       </c>
       <c r="R10">
-        <v>1.119140721126621</v>
+        <v>1.000427913169673</v>
       </c>
       <c r="S10">
-        <v>1.119140721126621</v>
+        <v>1.000427913169673</v>
       </c>
       <c r="T10">
-        <v>1.11706173030073</v>
+        <v>1.000209929752069</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9551777475594478</v>
+        <v>0.9750761903524402</v>
       </c>
       <c r="D11">
-        <v>0.9700286599781373</v>
+        <v>1.072908334261707</v>
       </c>
       <c r="E11">
-        <v>1.106333785863047</v>
+        <v>0.9979270591049408</v>
       </c>
       <c r="F11">
-        <v>0.9700286599781373</v>
+        <v>1.072908334261707</v>
       </c>
       <c r="G11">
-        <v>1.106333785863047</v>
+        <v>0.9979270591049408</v>
       </c>
       <c r="H11">
-        <v>0.8597543354199119</v>
+        <v>0.9455176546297438</v>
       </c>
       <c r="I11">
-        <v>1.012703503913756</v>
+        <v>1.037798343618565</v>
       </c>
       <c r="J11">
-        <v>0.9988573581130877</v>
+        <v>0.9817120679331135</v>
       </c>
       <c r="K11">
-        <v>1.106333785863047</v>
+        <v>0.9979270591049408</v>
       </c>
       <c r="L11">
-        <v>0.9551777475594478</v>
+        <v>0.9750761903524402</v>
       </c>
       <c r="M11">
-        <v>0.9626032037687926</v>
+        <v>1.023992262307073</v>
       </c>
       <c r="N11">
-        <v>0.9626032037687926</v>
+        <v>1.023992262307073</v>
       </c>
       <c r="O11">
-        <v>0.9793033038171138</v>
+        <v>1.028594289410904</v>
       </c>
       <c r="P11">
-        <v>1.010513397800211</v>
+        <v>1.015303861239696</v>
       </c>
       <c r="Q11">
-        <v>1.010513397800211</v>
+        <v>1.015303861239696</v>
       </c>
       <c r="R11">
-        <v>1.03446849481592</v>
+        <v>1.010959660706007</v>
       </c>
       <c r="S11">
-        <v>1.03446849481592</v>
+        <v>1.010959660706007</v>
       </c>
       <c r="T11">
-        <v>0.983809231807898</v>
+        <v>1.001823274983418</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9054629497578945</v>
+        <v>0.6794186276487614</v>
       </c>
       <c r="D12">
-        <v>1.504811564547371</v>
+        <v>2.693244748941595</v>
       </c>
       <c r="E12">
-        <v>0.8597119242842107</v>
+        <v>0.5519497539580631</v>
       </c>
       <c r="F12">
-        <v>1.504811564547371</v>
+        <v>2.693244748941595</v>
       </c>
       <c r="G12">
-        <v>0.8597119242842107</v>
+        <v>0.5519497539580631</v>
       </c>
       <c r="H12">
-        <v>0.844779967521052</v>
+        <v>0.4474831781199314</v>
       </c>
       <c r="I12">
-        <v>1.206733396063159</v>
+        <v>1.688620914273127</v>
       </c>
       <c r="J12">
-        <v>0.8919659231999991</v>
+        <v>0.6416531588629021</v>
       </c>
       <c r="K12">
-        <v>0.8597119242842107</v>
+        <v>0.5519497539580631</v>
       </c>
       <c r="L12">
-        <v>0.9054629497578945</v>
+        <v>0.6794186276487614</v>
       </c>
       <c r="M12">
-        <v>1.205137257152633</v>
+        <v>1.686331688295178</v>
       </c>
       <c r="N12">
-        <v>1.205137257152633</v>
+        <v>1.686331688295178</v>
       </c>
       <c r="O12">
-        <v>1.205669303456141</v>
+        <v>1.687094763621161</v>
       </c>
       <c r="P12">
-        <v>1.089995479529825</v>
+        <v>1.308204376849473</v>
       </c>
       <c r="Q12">
-        <v>1.089995479529825</v>
+        <v>1.308204376849473</v>
       </c>
       <c r="R12">
-        <v>1.032424590718422</v>
+        <v>1.119140721126621</v>
       </c>
       <c r="S12">
-        <v>1.032424590718422</v>
+        <v>1.119140721126621</v>
       </c>
       <c r="T12">
-        <v>1.035577620895614</v>
+        <v>1.11706173030073</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.051459653945521</v>
+        <v>0.9551777475594478</v>
       </c>
       <c r="D13">
-        <v>0.7612610939260452</v>
+        <v>0.9700286599781373</v>
       </c>
       <c r="E13">
-        <v>1.084925599298505</v>
+        <v>1.106333785863047</v>
       </c>
       <c r="F13">
-        <v>0.7612610939260452</v>
+        <v>0.9700286599781373</v>
       </c>
       <c r="G13">
-        <v>1.084925599298505</v>
+        <v>1.106333785863047</v>
       </c>
       <c r="H13">
-        <v>1.168699781989065</v>
+        <v>0.8597543354199119</v>
       </c>
       <c r="I13">
-        <v>0.857860371732878</v>
+        <v>1.012703503913756</v>
       </c>
       <c r="J13">
-        <v>1.061222540578913</v>
+        <v>0.9988573581130877</v>
       </c>
       <c r="K13">
-        <v>1.084925599298505</v>
+        <v>1.106333785863047</v>
       </c>
       <c r="L13">
-        <v>1.051459653945521</v>
+        <v>0.9551777475594478</v>
       </c>
       <c r="M13">
-        <v>0.9063603739357831</v>
+        <v>0.9626032037687926</v>
       </c>
       <c r="N13">
-        <v>0.9063603739357831</v>
+        <v>0.9626032037687926</v>
       </c>
       <c r="O13">
-        <v>0.8901937065348147</v>
+        <v>0.9793033038171138</v>
       </c>
       <c r="P13">
-        <v>0.9658821157233571</v>
+        <v>1.010513397800211</v>
       </c>
       <c r="Q13">
-        <v>0.9658821157233571</v>
+        <v>1.010513397800211</v>
       </c>
       <c r="R13">
-        <v>0.9956429866171441</v>
+        <v>1.03446849481592</v>
       </c>
       <c r="S13">
-        <v>0.9956429866171441</v>
+        <v>1.03446849481592</v>
       </c>
       <c r="T13">
-        <v>0.9975715069118212</v>
+        <v>0.983809231807898</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.4490890699999996</v>
+        <v>0.9054629497578945</v>
       </c>
       <c r="D14">
-        <v>3.939353100000003</v>
+        <v>1.504811564547371</v>
       </c>
       <c r="E14">
-        <v>0.2188589699999998</v>
+        <v>0.8597119242842107</v>
       </c>
       <c r="F14">
-        <v>3.939353100000003</v>
+        <v>1.504811564547371</v>
       </c>
       <c r="G14">
-        <v>0.2188589699999998</v>
+        <v>0.8597119242842107</v>
       </c>
       <c r="H14">
-        <v>0.05435712199999995</v>
+        <v>0.844779967521052</v>
       </c>
       <c r="I14">
-        <v>2.187941700000001</v>
+        <v>1.206733396063159</v>
       </c>
       <c r="J14">
-        <v>0.3808422</v>
+        <v>0.8919659231999991</v>
       </c>
       <c r="K14">
-        <v>0.2188589699999998</v>
+        <v>0.8597119242842107</v>
       </c>
       <c r="L14">
-        <v>0.4490890699999996</v>
+        <v>0.9054629497578945</v>
       </c>
       <c r="M14">
-        <v>2.194221085000001</v>
+        <v>1.205137257152633</v>
       </c>
       <c r="N14">
-        <v>2.194221085000001</v>
+        <v>1.205137257152633</v>
       </c>
       <c r="O14">
-        <v>2.192127956666668</v>
+        <v>1.205669303456141</v>
       </c>
       <c r="P14">
-        <v>1.535767046666668</v>
+        <v>1.089995479529825</v>
       </c>
       <c r="Q14">
-        <v>1.535767046666668</v>
+        <v>1.089995479529825</v>
       </c>
       <c r="R14">
-        <v>1.2065400275</v>
+        <v>1.032424590718422</v>
       </c>
       <c r="S14">
-        <v>1.2065400275</v>
+        <v>1.032424590718422</v>
       </c>
       <c r="T14">
-        <v>1.205073693666667</v>
+        <v>1.035577620895614</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.8289786500000002</v>
+        <v>1.051459653945521</v>
       </c>
       <c r="D15">
-        <v>0.21885897</v>
+        <v>0.7612610939260452</v>
       </c>
       <c r="E15">
-        <v>1.9813918</v>
+        <v>1.084925599298505</v>
       </c>
       <c r="F15">
-        <v>0.21885897</v>
+        <v>0.7612610939260452</v>
       </c>
       <c r="G15">
-        <v>1.9813918</v>
+        <v>1.084925599298505</v>
       </c>
       <c r="H15">
-        <v>0.66920919</v>
+        <v>1.168699781989065</v>
       </c>
       <c r="I15">
-        <v>0.6454245799999999</v>
+        <v>0.857860371732878</v>
       </c>
       <c r="J15">
-        <v>1.1585466</v>
+        <v>1.061222540578913</v>
       </c>
       <c r="K15">
-        <v>1.9813918</v>
+        <v>1.084925599298505</v>
       </c>
       <c r="L15">
-        <v>0.8289786500000002</v>
+        <v>1.051459653945521</v>
       </c>
       <c r="M15">
-        <v>0.5239188100000001</v>
+        <v>0.9063603739357831</v>
       </c>
       <c r="N15">
-        <v>0.5239188100000001</v>
+        <v>0.9063603739357831</v>
       </c>
       <c r="O15">
-        <v>0.5644207333333333</v>
+        <v>0.8901937065348147</v>
       </c>
       <c r="P15">
-        <v>1.00974314</v>
+        <v>0.9658821157233571</v>
       </c>
       <c r="Q15">
-        <v>1.00974314</v>
+        <v>0.9658821157233571</v>
       </c>
       <c r="R15">
-        <v>1.252655305</v>
+        <v>0.9956429866171441</v>
       </c>
       <c r="S15">
-        <v>1.252655305</v>
+        <v>0.9956429866171441</v>
       </c>
       <c r="T15">
-        <v>0.9170682983333333</v>
+        <v>0.9975715069118212</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8289786500000002</v>
+        <v>0.4490890699999996</v>
       </c>
       <c r="D16">
-        <v>0.21885897</v>
+        <v>3.939353100000003</v>
       </c>
       <c r="E16">
-        <v>1.9813918</v>
+        <v>0.2188589699999998</v>
       </c>
       <c r="F16">
-        <v>0.21885897</v>
+        <v>3.939353100000003</v>
       </c>
       <c r="G16">
-        <v>1.9813918</v>
+        <v>0.2188589699999998</v>
       </c>
       <c r="H16">
-        <v>0.66920919</v>
+        <v>0.05435712199999995</v>
       </c>
       <c r="I16">
-        <v>0.6454245799999999</v>
+        <v>2.187941700000001</v>
       </c>
       <c r="J16">
-        <v>1.1585466</v>
+        <v>0.3808422</v>
       </c>
       <c r="K16">
-        <v>1.9813918</v>
+        <v>0.2188589699999998</v>
       </c>
       <c r="L16">
-        <v>0.8289786500000002</v>
+        <v>0.4490890699999996</v>
       </c>
       <c r="M16">
-        <v>0.5239188100000001</v>
+        <v>2.194221085000001</v>
       </c>
       <c r="N16">
-        <v>0.5239188100000001</v>
+        <v>2.194221085000001</v>
       </c>
       <c r="O16">
-        <v>0.5644207333333333</v>
+        <v>2.192127956666668</v>
       </c>
       <c r="P16">
-        <v>1.00974314</v>
+        <v>1.535767046666668</v>
       </c>
       <c r="Q16">
-        <v>1.00974314</v>
+        <v>1.535767046666668</v>
       </c>
       <c r="R16">
-        <v>1.252655305</v>
+        <v>1.2065400275</v>
       </c>
       <c r="S16">
-        <v>1.252655305</v>
+        <v>1.2065400275</v>
       </c>
       <c r="T16">
-        <v>0.9170682983333333</v>
+        <v>1.205073693666667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.5132597</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="D17">
-        <v>0.06559432699999999</v>
+        <v>0.21885897</v>
       </c>
       <c r="E17">
-        <v>0.7162996800000001</v>
+        <v>1.9813918</v>
       </c>
       <c r="F17">
-        <v>0.06559432699999999</v>
+        <v>0.21885897</v>
       </c>
       <c r="G17">
-        <v>0.7162996800000001</v>
+        <v>1.9813918</v>
       </c>
       <c r="H17">
-        <v>2.818143399999999</v>
+        <v>0.66920919</v>
       </c>
       <c r="I17">
-        <v>0.24865233</v>
+        <v>0.6454245799999999</v>
       </c>
       <c r="J17">
-        <v>1.2778388</v>
+        <v>1.1585466</v>
       </c>
       <c r="K17">
-        <v>0.7162996800000001</v>
+        <v>1.9813918</v>
       </c>
       <c r="L17">
-        <v>1.5132597</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="M17">
-        <v>0.7894270135</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="N17">
-        <v>0.7894270135</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="O17">
-        <v>0.6091687856666667</v>
+        <v>0.5644207333333333</v>
       </c>
       <c r="P17">
-        <v>0.7650512356666667</v>
+        <v>1.00974314</v>
       </c>
       <c r="Q17">
-        <v>0.7650512356666668</v>
+        <v>1.00974314</v>
       </c>
       <c r="R17">
-        <v>0.7528633467500001</v>
+        <v>1.252655305</v>
       </c>
       <c r="S17">
-        <v>0.7528633467500001</v>
+        <v>1.252655305</v>
       </c>
       <c r="T17">
-        <v>1.106631372833333</v>
+        <v>0.9170682983333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.701076531643836</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="D18">
-        <v>1.835997022054794</v>
+        <v>0.21885897</v>
       </c>
       <c r="E18">
-        <v>0.9995425063013701</v>
+        <v>1.9813918</v>
       </c>
       <c r="F18">
-        <v>1.835997022054794</v>
+        <v>0.21885897</v>
       </c>
       <c r="G18">
-        <v>0.9995425063013701</v>
+        <v>1.9813918</v>
       </c>
       <c r="H18">
-        <v>0.337895131150685</v>
+        <v>0.66920919</v>
       </c>
       <c r="I18">
-        <v>1.441133253972603</v>
+        <v>0.6454245799999999</v>
       </c>
       <c r="J18">
-        <v>0.7877548367123287</v>
+        <v>1.1585466</v>
       </c>
       <c r="K18">
-        <v>0.9995425063013701</v>
+        <v>1.9813918</v>
       </c>
       <c r="L18">
-        <v>0.701076531643836</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="M18">
-        <v>1.268536776849315</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="N18">
-        <v>1.268536776849315</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="O18">
-        <v>1.326068935890411</v>
+        <v>0.5644207333333333</v>
       </c>
       <c r="P18">
-        <v>1.17887202</v>
+        <v>1.00974314</v>
       </c>
       <c r="Q18">
-        <v>1.17887202</v>
+        <v>1.00974314</v>
       </c>
       <c r="R18">
-        <v>1.134039641575343</v>
+        <v>1.252655305</v>
       </c>
       <c r="S18">
-        <v>1.134039641575343</v>
+        <v>1.252655305</v>
       </c>
       <c r="T18">
-        <v>1.017233213639269</v>
+        <v>0.9170682983333333</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.075012418947368</v>
+        <v>1.5132597</v>
       </c>
       <c r="D19">
-        <v>1.043442563052632</v>
+        <v>0.06559432699999999</v>
       </c>
       <c r="E19">
-        <v>0.8787117957894734</v>
+        <v>0.7162996800000001</v>
       </c>
       <c r="F19">
-        <v>1.043442563052632</v>
+        <v>0.06559432699999999</v>
       </c>
       <c r="G19">
-        <v>0.8787117957894734</v>
+        <v>0.7162996800000001</v>
       </c>
       <c r="H19">
-        <v>1.346592761</v>
+        <v>2.818143399999999</v>
       </c>
       <c r="I19">
-        <v>0.9135578252631579</v>
+        <v>0.24865233</v>
       </c>
       <c r="J19">
-        <v>1.016213122105263</v>
+        <v>1.2778388</v>
       </c>
       <c r="K19">
-        <v>0.8787117957894734</v>
+        <v>0.7162996800000001</v>
       </c>
       <c r="L19">
-        <v>1.075012418947368</v>
+        <v>1.5132597</v>
       </c>
       <c r="M19">
-        <v>1.059227491</v>
+        <v>0.7894270135</v>
       </c>
       <c r="N19">
-        <v>1.059227491</v>
+        <v>0.7894270135</v>
       </c>
       <c r="O19">
-        <v>1.010670935754386</v>
+        <v>0.6091687856666667</v>
       </c>
       <c r="P19">
-        <v>0.9990555925964912</v>
+        <v>0.7650512356666667</v>
       </c>
       <c r="Q19">
-        <v>0.9990555925964912</v>
+        <v>0.7650512356666668</v>
       </c>
       <c r="R19">
-        <v>0.9689696433947368</v>
+        <v>0.7528633467500001</v>
       </c>
       <c r="S19">
-        <v>0.9689696433947368</v>
+        <v>0.7528633467500001</v>
       </c>
       <c r="T19">
-        <v>1.045588414359649</v>
+        <v>1.106631372833333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.075012418947368</v>
+        <v>0.701076531643836</v>
       </c>
       <c r="D20">
-        <v>1.043442563052632</v>
+        <v>1.835997022054794</v>
       </c>
       <c r="E20">
-        <v>0.8787117957894734</v>
+        <v>0.9995425063013701</v>
       </c>
       <c r="F20">
-        <v>1.043442563052632</v>
+        <v>1.835997022054794</v>
       </c>
       <c r="G20">
-        <v>0.8787117957894734</v>
+        <v>0.9995425063013701</v>
       </c>
       <c r="H20">
-        <v>1.346592761</v>
+        <v>0.337895131150685</v>
       </c>
       <c r="I20">
-        <v>0.9135578252631579</v>
+        <v>1.441133253972603</v>
       </c>
       <c r="J20">
-        <v>1.016213122105263</v>
+        <v>0.7877548367123287</v>
       </c>
       <c r="K20">
-        <v>0.8787117957894734</v>
+        <v>0.9995425063013701</v>
       </c>
       <c r="L20">
-        <v>1.075012418947368</v>
+        <v>0.701076531643836</v>
       </c>
       <c r="M20">
-        <v>1.059227491</v>
+        <v>1.268536776849315</v>
       </c>
       <c r="N20">
-        <v>1.059227491</v>
+        <v>1.268536776849315</v>
       </c>
       <c r="O20">
-        <v>1.010670935754386</v>
+        <v>1.326068935890411</v>
       </c>
       <c r="P20">
-        <v>0.9990555925964912</v>
+        <v>1.17887202</v>
       </c>
       <c r="Q20">
-        <v>0.9990555925964912</v>
+        <v>1.17887202</v>
       </c>
       <c r="R20">
-        <v>0.9689696433947368</v>
+        <v>1.134039641575343</v>
       </c>
       <c r="S20">
-        <v>0.9689696433947368</v>
+        <v>1.134039641575343</v>
       </c>
       <c r="T20">
-        <v>1.045588414359649</v>
+        <v>1.017233213639269</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.165048391102379</v>
+        <v>1.075012418947368</v>
       </c>
       <c r="D21">
-        <v>0.6132311431620125</v>
+        <v>1.043442563052632</v>
       </c>
       <c r="E21">
-        <v>0.9489468280812742</v>
+        <v>0.8787117957894734</v>
       </c>
       <c r="F21">
-        <v>0.6132311431620125</v>
+        <v>1.043442563052632</v>
       </c>
       <c r="G21">
-        <v>0.9489468280812742</v>
+        <v>0.8787117957894734</v>
       </c>
       <c r="H21">
-        <v>1.391676314260136</v>
+        <v>1.346592761</v>
       </c>
       <c r="I21">
-        <v>0.7808622755914665</v>
+        <v>0.9135578252631579</v>
       </c>
       <c r="J21">
-        <v>1.102329925782838</v>
+        <v>1.016213122105263</v>
       </c>
       <c r="K21">
-        <v>0.9489468280812742</v>
+        <v>0.8787117957894734</v>
       </c>
       <c r="L21">
-        <v>1.165048391102379</v>
+        <v>1.075012418947368</v>
       </c>
       <c r="M21">
-        <v>0.889139767132196</v>
+        <v>1.059227491</v>
       </c>
       <c r="N21">
-        <v>0.889139767132196</v>
+        <v>1.059227491</v>
       </c>
       <c r="O21">
-        <v>0.8530472699519528</v>
+        <v>1.010670935754386</v>
       </c>
       <c r="P21">
-        <v>0.9090754541152221</v>
+        <v>0.9990555925964912</v>
       </c>
       <c r="Q21">
-        <v>0.9090754541152221</v>
+        <v>0.9990555925964912</v>
       </c>
       <c r="R21">
-        <v>0.9190432976067351</v>
+        <v>0.9689696433947368</v>
       </c>
       <c r="S21">
-        <v>0.9190432976067351</v>
+        <v>0.9689696433947368</v>
       </c>
       <c r="T21">
-        <v>1.000349146330018</v>
+        <v>1.045588414359649</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9797230111250644</v>
+        <v>1.075012418947368</v>
       </c>
       <c r="D22">
-        <v>0.920854348411776</v>
+        <v>1.043442563052632</v>
       </c>
       <c r="E22">
-        <v>1.114500948424145</v>
+        <v>0.8787117957894734</v>
       </c>
       <c r="F22">
-        <v>0.920854348411776</v>
+        <v>1.043442563052632</v>
       </c>
       <c r="G22">
-        <v>1.114500948424145</v>
+        <v>0.8787117957894734</v>
       </c>
       <c r="H22">
-        <v>1.044247981991259</v>
+        <v>1.346592761</v>
       </c>
       <c r="I22">
-        <v>0.9377645740754055</v>
+        <v>0.9135578252631579</v>
       </c>
       <c r="J22">
-        <v>1.018930492568054</v>
+        <v>1.016213122105263</v>
       </c>
       <c r="K22">
-        <v>1.114500948424145</v>
+        <v>0.8787117957894734</v>
       </c>
       <c r="L22">
-        <v>0.9797230111250644</v>
+        <v>1.075012418947368</v>
       </c>
       <c r="M22">
-        <v>0.9502886797684202</v>
+        <v>1.059227491</v>
       </c>
       <c r="N22">
-        <v>0.9502886797684202</v>
+        <v>1.059227491</v>
       </c>
       <c r="O22">
-        <v>0.9461139778707487</v>
+        <v>1.010670935754386</v>
       </c>
       <c r="P22">
-        <v>1.005026102653662</v>
+        <v>0.9990555925964912</v>
       </c>
       <c r="Q22">
-        <v>1.005026102653662</v>
+        <v>0.9990555925964912</v>
       </c>
       <c r="R22">
-        <v>1.032394814096283</v>
+        <v>0.9689696433947368</v>
       </c>
       <c r="S22">
-        <v>1.032394814096283</v>
+        <v>0.9689696433947368</v>
       </c>
       <c r="T22">
-        <v>1.002670226099284</v>
+        <v>1.045588414359649</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9294315679662116</v>
+        <v>1.165048391102379</v>
       </c>
       <c r="D23">
-        <v>0.6474123980439751</v>
+        <v>0.6132311431620125</v>
       </c>
       <c r="E23">
-        <v>1.383247727733637</v>
+        <v>0.9489468280812742</v>
       </c>
       <c r="F23">
-        <v>0.6474123980439751</v>
+        <v>0.6132311431620125</v>
       </c>
       <c r="G23">
-        <v>1.383247727733637</v>
+        <v>0.9489468280812742</v>
       </c>
       <c r="H23">
-        <v>0.7695134981280535</v>
+        <v>1.391676314260136</v>
       </c>
       <c r="I23">
-        <v>0.8916722145036236</v>
+        <v>0.7808622755914665</v>
       </c>
       <c r="J23">
-        <v>1.062021937385172</v>
+        <v>1.102329925782838</v>
       </c>
       <c r="K23">
-        <v>1.383247727733637</v>
+        <v>0.9489468280812742</v>
       </c>
       <c r="L23">
-        <v>0.9294315679662116</v>
+        <v>1.165048391102379</v>
       </c>
       <c r="M23">
-        <v>0.7884219830050934</v>
+        <v>0.889139767132196</v>
       </c>
       <c r="N23">
-        <v>0.7884219830050934</v>
+        <v>0.889139767132196</v>
       </c>
       <c r="O23">
-        <v>0.8228387268379368</v>
+        <v>0.8530472699519528</v>
       </c>
       <c r="P23">
-        <v>0.9866972312479413</v>
+        <v>0.9090754541152221</v>
       </c>
       <c r="Q23">
-        <v>0.9866972312479413</v>
+        <v>0.9090754541152221</v>
       </c>
       <c r="R23">
-        <v>1.085834855369365</v>
+        <v>0.9190432976067351</v>
       </c>
       <c r="S23">
-        <v>1.085834855369365</v>
+        <v>0.9190432976067351</v>
       </c>
       <c r="T23">
-        <v>0.9472165572934456</v>
+        <v>1.000349146330018</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.069688241736297</v>
+        <v>0.9797230111250644</v>
       </c>
       <c r="D24">
-        <v>1.013927747195857</v>
+        <v>0.920854348411776</v>
       </c>
       <c r="E24">
-        <v>0.8574694106388464</v>
+        <v>1.114500948424145</v>
       </c>
       <c r="F24">
-        <v>1.013927747195857</v>
+        <v>0.920854348411776</v>
       </c>
       <c r="G24">
-        <v>0.8574694106388464</v>
+        <v>1.114500948424145</v>
       </c>
       <c r="H24">
-        <v>1.165039530280905</v>
+        <v>1.044247981991259</v>
       </c>
       <c r="I24">
-        <v>0.9798262988859499</v>
+        <v>0.9377645740754055</v>
       </c>
       <c r="J24">
-        <v>1.007695936101689</v>
+        <v>1.018930492568054</v>
       </c>
       <c r="K24">
-        <v>0.8574694106388464</v>
+        <v>1.114500948424145</v>
       </c>
       <c r="L24">
-        <v>1.069688241736297</v>
+        <v>0.9797230111250644</v>
       </c>
       <c r="M24">
-        <v>1.041807994466077</v>
+        <v>0.9502886797684202</v>
       </c>
       <c r="N24">
-        <v>1.041807994466077</v>
+        <v>0.9502886797684202</v>
       </c>
       <c r="O24">
-        <v>1.021147429272701</v>
+        <v>0.9461139778707487</v>
       </c>
       <c r="P24">
-        <v>0.9803617998570003</v>
+        <v>1.005026102653662</v>
       </c>
       <c r="Q24">
-        <v>0.9803617998570003</v>
+        <v>1.005026102653662</v>
       </c>
       <c r="R24">
-        <v>0.9496387025524619</v>
+        <v>1.032394814096283</v>
       </c>
       <c r="S24">
-        <v>0.9496387025524619</v>
+        <v>1.032394814096283</v>
       </c>
       <c r="T24">
-        <v>1.015607860806591</v>
+        <v>1.002670226099284</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.16504839110238</v>
+        <v>0.9294315679662116</v>
       </c>
       <c r="D25">
-        <v>0.6132311431620125</v>
+        <v>0.6474123980439751</v>
       </c>
       <c r="E25">
-        <v>0.9489468280812741</v>
+        <v>1.383247727733637</v>
       </c>
       <c r="F25">
-        <v>0.6132311431620125</v>
+        <v>0.6474123980439751</v>
       </c>
       <c r="G25">
-        <v>0.9489468280812741</v>
+        <v>1.383247727733637</v>
       </c>
       <c r="H25">
-        <v>1.391676314260136</v>
+        <v>0.7695134981280535</v>
       </c>
       <c r="I25">
-        <v>0.7808622755914664</v>
+        <v>0.8916722145036236</v>
       </c>
       <c r="J25">
-        <v>1.102329925782838</v>
+        <v>1.062021937385172</v>
       </c>
       <c r="K25">
-        <v>0.9489468280812741</v>
+        <v>1.383247727733637</v>
       </c>
       <c r="L25">
-        <v>1.16504839110238</v>
+        <v>0.9294315679662116</v>
       </c>
       <c r="M25">
-        <v>0.8891397671321962</v>
+        <v>0.7884219830050934</v>
       </c>
       <c r="N25">
-        <v>0.8891397671321962</v>
+        <v>0.7884219830050934</v>
       </c>
       <c r="O25">
-        <v>0.8530472699519529</v>
+        <v>0.8228387268379368</v>
       </c>
       <c r="P25">
-        <v>0.9090754541152221</v>
+        <v>0.9866972312479413</v>
       </c>
       <c r="Q25">
-        <v>0.9090754541152221</v>
+        <v>0.9866972312479413</v>
       </c>
       <c r="R25">
-        <v>0.9190432976067351</v>
+        <v>1.085834855369365</v>
       </c>
       <c r="S25">
-        <v>0.9190432976067351</v>
+        <v>1.085834855369365</v>
       </c>
       <c r="T25">
-        <v>1.000349146330018</v>
+        <v>0.9472165572934456</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9797230111250643</v>
+        <v>1.069688241736297</v>
       </c>
       <c r="D26">
-        <v>0.9208543484117762</v>
+        <v>1.013927747195857</v>
       </c>
       <c r="E26">
-        <v>1.114500948424145</v>
+        <v>0.8574694106388464</v>
       </c>
       <c r="F26">
-        <v>0.9208543484117762</v>
+        <v>1.013927747195857</v>
       </c>
       <c r="G26">
-        <v>1.114500948424145</v>
+        <v>0.8574694106388464</v>
       </c>
       <c r="H26">
-        <v>1.044247981991259</v>
+        <v>1.165039530280905</v>
       </c>
       <c r="I26">
-        <v>0.9377645740754056</v>
+        <v>0.9798262988859499</v>
       </c>
       <c r="J26">
-        <v>1.018930492568054</v>
+        <v>1.007695936101689</v>
       </c>
       <c r="K26">
-        <v>1.114500948424145</v>
+        <v>0.8574694106388464</v>
       </c>
       <c r="L26">
-        <v>0.9797230111250643</v>
+        <v>1.069688241736297</v>
       </c>
       <c r="M26">
-        <v>0.9502886797684202</v>
+        <v>1.041807994466077</v>
       </c>
       <c r="N26">
-        <v>0.9502886797684202</v>
+        <v>1.041807994466077</v>
       </c>
       <c r="O26">
-        <v>0.9461139778707487</v>
+        <v>1.021147429272701</v>
       </c>
       <c r="P26">
-        <v>1.005026102653662</v>
+        <v>0.9803617998570003</v>
       </c>
       <c r="Q26">
-        <v>1.005026102653662</v>
+        <v>0.9803617998570003</v>
       </c>
       <c r="R26">
-        <v>1.032394814096283</v>
+        <v>0.9496387025524619</v>
       </c>
       <c r="S26">
-        <v>1.032394814096283</v>
+        <v>0.9496387025524619</v>
       </c>
       <c r="T26">
-        <v>1.002670226099284</v>
+        <v>1.015607860806591</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9721315662460447</v>
+        <v>1.16504839110238</v>
       </c>
       <c r="D27">
-        <v>1.097862878032881</v>
+        <v>0.6132311431620125</v>
       </c>
       <c r="E27">
-        <v>0.9594025300772112</v>
+        <v>0.9489468280812741</v>
       </c>
       <c r="F27">
-        <v>1.097862878032881</v>
+        <v>0.6132311431620125</v>
       </c>
       <c r="G27">
-        <v>0.9594025300772112</v>
+        <v>0.9489468280812741</v>
       </c>
       <c r="H27">
-        <v>0.8953943628454462</v>
+        <v>1.391676314260136</v>
       </c>
       <c r="I27">
-        <v>1.07810834417008</v>
+        <v>0.7808622755914664</v>
       </c>
       <c r="J27">
-        <v>0.9695229094613148</v>
+        <v>1.102329925782838</v>
       </c>
       <c r="K27">
-        <v>0.9594025300772112</v>
+        <v>0.9489468280812741</v>
       </c>
       <c r="L27">
-        <v>0.9721315662460447</v>
+        <v>1.16504839110238</v>
       </c>
       <c r="M27">
-        <v>1.034997222139463</v>
+        <v>0.8891397671321962</v>
       </c>
       <c r="N27">
-        <v>1.034997222139463</v>
+        <v>0.8891397671321962</v>
       </c>
       <c r="O27">
-        <v>1.049367596149668</v>
+        <v>0.8530472699519529</v>
       </c>
       <c r="P27">
-        <v>1.009798991452046</v>
+        <v>0.9090754541152221</v>
       </c>
       <c r="Q27">
-        <v>1.009798991452046</v>
+        <v>0.9090754541152221</v>
       </c>
       <c r="R27">
-        <v>0.997199876108337</v>
+        <v>0.9190432976067351</v>
       </c>
       <c r="S27">
-        <v>0.997199876108337</v>
+        <v>0.9190432976067351</v>
       </c>
       <c r="T27">
-        <v>0.9954037651388296</v>
+        <v>1.000349146330018</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.035682238279795</v>
+        <v>0.9797230111250643</v>
       </c>
       <c r="D28">
-        <v>0.9243771193540303</v>
+        <v>0.9208543484117762</v>
       </c>
       <c r="E28">
-        <v>0.9846569239672783</v>
+        <v>1.114500948424145</v>
       </c>
       <c r="F28">
-        <v>0.9243771193540303</v>
+        <v>0.9208543484117762</v>
       </c>
       <c r="G28">
-        <v>0.9846569239672783</v>
+        <v>1.114500948424145</v>
       </c>
       <c r="H28">
-        <v>1.138647962157371</v>
+        <v>1.044247981991259</v>
       </c>
       <c r="I28">
-        <v>0.9432587725932176</v>
+        <v>0.9377645740754056</v>
       </c>
       <c r="J28">
-        <v>1.020282325744046</v>
+        <v>1.018930492568054</v>
       </c>
       <c r="K28">
-        <v>0.9846569239672783</v>
+        <v>1.114500948424145</v>
       </c>
       <c r="L28">
-        <v>1.035682238279795</v>
+        <v>0.9797230111250643</v>
       </c>
       <c r="M28">
-        <v>0.9800296788169125</v>
+        <v>0.9502886797684202</v>
       </c>
       <c r="N28">
-        <v>0.9800296788169125</v>
+        <v>0.9502886797684202</v>
       </c>
       <c r="O28">
-        <v>0.9677727100756809</v>
+        <v>0.9461139778707487</v>
       </c>
       <c r="P28">
-        <v>0.9815720938670345</v>
+        <v>1.005026102653662</v>
       </c>
       <c r="Q28">
-        <v>0.9815720938670344</v>
+        <v>1.005026102653662</v>
       </c>
       <c r="R28">
-        <v>0.9823433013920954</v>
+        <v>1.032394814096283</v>
       </c>
       <c r="S28">
-        <v>0.9823433013920954</v>
+        <v>1.032394814096283</v>
       </c>
       <c r="T28">
-        <v>1.007817557015956</v>
+        <v>1.002670226099284</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9721315662460447</v>
+      </c>
+      <c r="D29">
+        <v>1.097862878032881</v>
+      </c>
+      <c r="E29">
+        <v>0.9594025300772112</v>
+      </c>
+      <c r="F29">
+        <v>1.097862878032881</v>
+      </c>
+      <c r="G29">
+        <v>0.9594025300772112</v>
+      </c>
+      <c r="H29">
+        <v>0.8953943628454462</v>
+      </c>
+      <c r="I29">
+        <v>1.07810834417008</v>
+      </c>
+      <c r="J29">
+        <v>0.9695229094613148</v>
+      </c>
+      <c r="K29">
+        <v>0.9594025300772112</v>
+      </c>
+      <c r="L29">
+        <v>0.9721315662460447</v>
+      </c>
+      <c r="M29">
+        <v>1.034997222139463</v>
+      </c>
+      <c r="N29">
+        <v>1.034997222139463</v>
+      </c>
+      <c r="O29">
+        <v>1.049367596149668</v>
+      </c>
+      <c r="P29">
+        <v>1.009798991452046</v>
+      </c>
+      <c r="Q29">
+        <v>1.009798991452046</v>
+      </c>
+      <c r="R29">
+        <v>0.997199876108337</v>
+      </c>
+      <c r="S29">
+        <v>0.997199876108337</v>
+      </c>
+      <c r="T29">
+        <v>0.9954037651388296</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.035682238279795</v>
+      </c>
+      <c r="D30">
+        <v>0.9243771193540303</v>
+      </c>
+      <c r="E30">
+        <v>0.9846569239672783</v>
+      </c>
+      <c r="F30">
+        <v>0.9243771193540303</v>
+      </c>
+      <c r="G30">
+        <v>0.9846569239672783</v>
+      </c>
+      <c r="H30">
+        <v>1.138647962157371</v>
+      </c>
+      <c r="I30">
+        <v>0.9432587725932176</v>
+      </c>
+      <c r="J30">
+        <v>1.020282325744046</v>
+      </c>
+      <c r="K30">
+        <v>0.9846569239672783</v>
+      </c>
+      <c r="L30">
+        <v>1.035682238279795</v>
+      </c>
+      <c r="M30">
+        <v>0.9800296788169125</v>
+      </c>
+      <c r="N30">
+        <v>0.9800296788169125</v>
+      </c>
+      <c r="O30">
+        <v>0.9677727100756809</v>
+      </c>
+      <c r="P30">
+        <v>0.9815720938670345</v>
+      </c>
+      <c r="Q30">
+        <v>0.9815720938670344</v>
+      </c>
+      <c r="R30">
+        <v>0.9823433013920954</v>
+      </c>
+      <c r="S30">
+        <v>0.9823433013920954</v>
+      </c>
+      <c r="T30">
+        <v>1.007817557015956</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.165079981003884</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.4917599565662167</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.031965525543072</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.4917599565662167</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.031965525543072</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.429449040003286</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.724330185425365</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.125135702788174</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.031965525543072</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.165079981003884</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.8284199687850504</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.8284199687850504</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.7937233743318219</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.896268487704391</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.896268487704391</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9301927471640613</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.9301927471640613</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9946200652216662</v>
       </c>
     </row>
